--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="C2" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="D2" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="E2" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="F2" t="n">
-        <v>141.0986</v>
+        <v>0.6202</v>
       </c>
       <c r="G2" t="n">
-        <v>15685.66666666667</v>
+        <v>15692.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15450</v>
+        <v>15460</v>
       </c>
       <c r="C3" t="n">
-        <v>15450</v>
+        <v>15410</v>
       </c>
       <c r="D3" t="n">
-        <v>15450</v>
+        <v>15460</v>
       </c>
       <c r="E3" t="n">
-        <v>15450</v>
+        <v>15410</v>
       </c>
       <c r="F3" t="n">
-        <v>12.487</v>
+        <v>141.0986</v>
       </c>
       <c r="G3" t="n">
-        <v>15679.5</v>
+        <v>15685.66666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>15450</v>
       </c>
       <c r="F4" t="n">
-        <v>148.975</v>
+        <v>12.487</v>
       </c>
       <c r="G4" t="n">
-        <v>15673.33333333333</v>
+        <v>15679.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15420</v>
+        <v>15450</v>
       </c>
       <c r="C5" t="n">
-        <v>15420</v>
+        <v>15450</v>
       </c>
       <c r="D5" t="n">
-        <v>15420</v>
+        <v>15450</v>
       </c>
       <c r="E5" t="n">
-        <v>15420</v>
+        <v>15450</v>
       </c>
       <c r="F5" t="n">
-        <v>61.602</v>
+        <v>148.975</v>
       </c>
       <c r="G5" t="n">
-        <v>15666.66666666667</v>
+        <v>15673.33333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="C6" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="D6" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="E6" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="F6" t="n">
-        <v>50.2863</v>
+        <v>61.602</v>
       </c>
       <c r="G6" t="n">
-        <v>15660.33333333333</v>
+        <v>15666.66666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15410</v>
+        <v>15440</v>
       </c>
       <c r="C7" t="n">
-        <v>15410</v>
+        <v>15440</v>
       </c>
       <c r="D7" t="n">
-        <v>15410</v>
+        <v>15440</v>
       </c>
       <c r="E7" t="n">
-        <v>15410</v>
+        <v>15440</v>
       </c>
       <c r="F7" t="n">
-        <v>29.9999</v>
+        <v>50.2863</v>
       </c>
       <c r="G7" t="n">
-        <v>15653.5</v>
+        <v>15660.33333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15450</v>
+        <v>15410</v>
       </c>
       <c r="C8" t="n">
-        <v>15450</v>
+        <v>15410</v>
       </c>
       <c r="D8" t="n">
-        <v>15450</v>
+        <v>15410</v>
       </c>
       <c r="E8" t="n">
-        <v>15450</v>
+        <v>15410</v>
       </c>
       <c r="F8" t="n">
-        <v>61.81</v>
+        <v>29.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>15647</v>
+        <v>15653.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>15450</v>
       </c>
       <c r="F9" t="n">
-        <v>55.941</v>
+        <v>61.81</v>
       </c>
       <c r="G9" t="n">
-        <v>15640.66666666667</v>
+        <v>15647</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>15450</v>
       </c>
       <c r="F10" t="n">
-        <v>2.6504</v>
+        <v>55.941</v>
       </c>
       <c r="G10" t="n">
-        <v>15634.16666666667</v>
+        <v>15640.66666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="C11" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="D11" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="E11" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="F11" t="n">
-        <v>113.6866</v>
+        <v>2.6504</v>
       </c>
       <c r="G11" t="n">
-        <v>15627.5</v>
+        <v>15634.16666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>15410</v>
       </c>
       <c r="F12" t="n">
-        <v>9.8687</v>
+        <v>113.6866</v>
       </c>
       <c r="G12" t="n">
-        <v>15620.66666666667</v>
+        <v>15627.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>15410</v>
       </c>
       <c r="F13" t="n">
-        <v>264.2772</v>
+        <v>9.8687</v>
       </c>
       <c r="G13" t="n">
-        <v>15613.83333333333</v>
+        <v>15620.66666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>15410</v>
       </c>
       <c r="F14" t="n">
-        <v>11.4135</v>
+        <v>264.2772</v>
       </c>
       <c r="G14" t="n">
-        <v>15607</v>
+        <v>15613.83333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>15410</v>
       </c>
       <c r="C15" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="D15" t="n">
         <v>15410</v>
       </c>
       <c r="E15" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="F15" t="n">
-        <v>149.93</v>
+        <v>11.4135</v>
       </c>
       <c r="G15" t="n">
-        <v>15600</v>
+        <v>15607</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="C16" t="n">
         <v>15400</v>
       </c>
       <c r="D16" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="E16" t="n">
         <v>15400</v>
       </c>
       <c r="F16" t="n">
-        <v>87.33759999999999</v>
+        <v>149.93</v>
       </c>
       <c r="G16" t="n">
-        <v>15593</v>
+        <v>15600</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>15400</v>
       </c>
       <c r="F17" t="n">
-        <v>2.8314</v>
+        <v>87.33759999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>15586.16666666667</v>
+        <v>15593</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>15400</v>
       </c>
       <c r="F18" t="n">
-        <v>7.8288</v>
+        <v>2.8314</v>
       </c>
       <c r="G18" t="n">
-        <v>15579.33333333333</v>
+        <v>15586.16666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>15400</v>
       </c>
       <c r="F19" t="n">
-        <v>5.827</v>
+        <v>7.8288</v>
       </c>
       <c r="G19" t="n">
-        <v>15572.33333333333</v>
+        <v>15579.33333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>15400</v>
       </c>
       <c r="F20" t="n">
-        <v>11.11</v>
+        <v>5.827</v>
       </c>
       <c r="G20" t="n">
-        <v>15566.33333333333</v>
+        <v>15572.33333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>15400</v>
       </c>
       <c r="C21" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="D21" t="n">
         <v>15400</v>
       </c>
       <c r="E21" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="F21" t="n">
-        <v>70.6692</v>
+        <v>11.11</v>
       </c>
       <c r="G21" t="n">
-        <v>15560.16666666667</v>
+        <v>15566.33333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="C22" t="n">
         <v>15390</v>
       </c>
       <c r="D22" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="E22" t="n">
         <v>15390</v>
       </c>
       <c r="F22" t="n">
-        <v>54.0791</v>
+        <v>70.6692</v>
       </c>
       <c r="G22" t="n">
-        <v>15554.5</v>
+        <v>15560.16666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="C23" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="D23" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="E23" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="F23" t="n">
-        <v>194.4763789746918</v>
+        <v>54.0791</v>
       </c>
       <c r="G23" t="n">
-        <v>15549.83333333333</v>
+        <v>15554.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15390</v>
+        <v>15410</v>
       </c>
       <c r="C24" t="n">
-        <v>15390</v>
+        <v>15410</v>
       </c>
       <c r="D24" t="n">
-        <v>15390</v>
+        <v>15410</v>
       </c>
       <c r="E24" t="n">
-        <v>15390</v>
+        <v>15410</v>
       </c>
       <c r="F24" t="n">
-        <v>166.3014</v>
+        <v>194.4763789746918</v>
       </c>
       <c r="G24" t="n">
-        <v>15544.83333333333</v>
+        <v>15549.83333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="C25" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="D25" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="E25" t="n">
-        <v>15410</v>
+        <v>15390</v>
       </c>
       <c r="F25" t="n">
-        <v>7.5231</v>
+        <v>166.3014</v>
       </c>
       <c r="G25" t="n">
-        <v>15540.16666666667</v>
+        <v>15544.83333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>15410</v>
       </c>
       <c r="F26" t="n">
-        <v>15.76052102530824</v>
+        <v>7.5231</v>
       </c>
       <c r="G26" t="n">
-        <v>15535.66666666667</v>
+        <v>15540.16666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15480</v>
+        <v>15410</v>
       </c>
       <c r="C27" t="n">
-        <v>15480</v>
+        <v>15410</v>
       </c>
       <c r="D27" t="n">
-        <v>15480</v>
+        <v>15410</v>
       </c>
       <c r="E27" t="n">
-        <v>15480</v>
+        <v>15410</v>
       </c>
       <c r="F27" t="n">
-        <v>49</v>
+        <v>15.76052102530824</v>
       </c>
       <c r="G27" t="n">
-        <v>15532.5</v>
+        <v>15535.66666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15510</v>
+        <v>15480</v>
       </c>
       <c r="C28" t="n">
-        <v>15510</v>
+        <v>15480</v>
       </c>
       <c r="D28" t="n">
-        <v>15510</v>
+        <v>15480</v>
       </c>
       <c r="E28" t="n">
-        <v>15510</v>
+        <v>15480</v>
       </c>
       <c r="F28" t="n">
-        <v>0.034</v>
+        <v>49</v>
       </c>
       <c r="G28" t="n">
-        <v>15529.83333333333</v>
+        <v>15532.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15500</v>
+        <v>15510</v>
       </c>
       <c r="C29" t="n">
-        <v>15500</v>
+        <v>15510</v>
       </c>
       <c r="D29" t="n">
-        <v>15500</v>
+        <v>15510</v>
       </c>
       <c r="E29" t="n">
-        <v>15500</v>
+        <v>15510</v>
       </c>
       <c r="F29" t="n">
-        <v>12.5876</v>
+        <v>0.034</v>
       </c>
       <c r="G29" t="n">
-        <v>15526.83333333333</v>
+        <v>15529.83333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15510</v>
+        <v>15500</v>
       </c>
       <c r="C30" t="n">
-        <v>15510</v>
+        <v>15500</v>
       </c>
       <c r="D30" t="n">
-        <v>15510</v>
+        <v>15500</v>
       </c>
       <c r="E30" t="n">
-        <v>15510</v>
+        <v>15500</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0569</v>
+        <v>12.5876</v>
       </c>
       <c r="G30" t="n">
-        <v>15524</v>
+        <v>15526.83333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>15510</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0593</v>
+        <v>2.0569</v>
       </c>
       <c r="G31" t="n">
-        <v>15521.16666666667</v>
+        <v>15524</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>15510</v>
       </c>
       <c r="F32" t="n">
-        <v>1.146</v>
+        <v>1.0593</v>
       </c>
       <c r="G32" t="n">
-        <v>15519.5</v>
+        <v>15521.16666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>15510</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4486</v>
+        <v>1.146</v>
       </c>
       <c r="G33" t="n">
-        <v>15517.83333333333</v>
+        <v>15519.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15440</v>
+        <v>15510</v>
       </c>
       <c r="C34" t="n">
-        <v>15440</v>
+        <v>15510</v>
       </c>
       <c r="D34" t="n">
-        <v>15440</v>
+        <v>15510</v>
       </c>
       <c r="E34" t="n">
-        <v>15440</v>
+        <v>15510</v>
       </c>
       <c r="F34" t="n">
-        <v>1.9613</v>
+        <v>0.4486</v>
       </c>
       <c r="G34" t="n">
-        <v>15515</v>
+        <v>15517.83333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="C35" t="n">
-        <v>15490</v>
+        <v>15440</v>
       </c>
       <c r="D35" t="n">
-        <v>15490</v>
+        <v>15440</v>
       </c>
       <c r="E35" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="F35" t="n">
-        <v>47.9192</v>
+        <v>1.9613</v>
       </c>
       <c r="G35" t="n">
-        <v>15512.33333333333</v>
+        <v>15515</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15420</v>
+        <v>15430</v>
       </c>
       <c r="C36" t="n">
-        <v>15410</v>
+        <v>15490</v>
       </c>
       <c r="D36" t="n">
-        <v>15420</v>
+        <v>15490</v>
       </c>
       <c r="E36" t="n">
-        <v>15410</v>
+        <v>15430</v>
       </c>
       <c r="F36" t="n">
-        <v>63.4475</v>
+        <v>47.9192</v>
       </c>
       <c r="G36" t="n">
-        <v>15508</v>
+        <v>15512.33333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15410</v>
+        <v>15420</v>
       </c>
       <c r="C37" t="n">
         <v>15410</v>
       </c>
       <c r="D37" t="n">
-        <v>15410</v>
+        <v>15420</v>
       </c>
       <c r="E37" t="n">
         <v>15410</v>
       </c>
       <c r="F37" t="n">
-        <v>40.8072</v>
+        <v>63.4475</v>
       </c>
       <c r="G37" t="n">
-        <v>15503.66666666667</v>
+        <v>15508</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>15410</v>
       </c>
       <c r="F38" t="n">
-        <v>33.8265</v>
+        <v>40.8072</v>
       </c>
       <c r="G38" t="n">
-        <v>15500.66666666667</v>
+        <v>15503.66666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15460</v>
+        <v>15410</v>
       </c>
       <c r="C39" t="n">
-        <v>15460</v>
+        <v>15410</v>
       </c>
       <c r="D39" t="n">
-        <v>15460</v>
+        <v>15410</v>
       </c>
       <c r="E39" t="n">
-        <v>15460</v>
+        <v>15410</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3524</v>
+        <v>33.8265</v>
       </c>
       <c r="G39" t="n">
-        <v>15498.16666666667</v>
+        <v>15500.66666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>15460</v>
       </c>
       <c r="C40" t="n">
-        <v>15410</v>
+        <v>15460</v>
       </c>
       <c r="D40" t="n">
-        <v>15470</v>
+        <v>15460</v>
       </c>
       <c r="E40" t="n">
-        <v>15410</v>
+        <v>15460</v>
       </c>
       <c r="F40" t="n">
-        <v>5.9109</v>
+        <v>0.3524</v>
       </c>
       <c r="G40" t="n">
-        <v>15495.5</v>
+        <v>15498.16666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15410</v>
+        <v>15460</v>
       </c>
       <c r="C41" t="n">
         <v>15410</v>
       </c>
       <c r="D41" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="E41" t="n">
         <v>15410</v>
       </c>
       <c r="F41" t="n">
-        <v>3.41</v>
+        <v>5.9109</v>
       </c>
       <c r="G41" t="n">
-        <v>15492.83333333333</v>
+        <v>15495.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>15410</v>
       </c>
       <c r="F42" t="n">
-        <v>7.1185</v>
+        <v>3.41</v>
       </c>
       <c r="G42" t="n">
-        <v>15488</v>
+        <v>15492.83333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>15410</v>
       </c>
       <c r="C43" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="D43" t="n">
         <v>15410</v>
       </c>
       <c r="E43" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="F43" t="n">
-        <v>76.1361</v>
+        <v>7.1185</v>
       </c>
       <c r="G43" t="n">
-        <v>15482.16666666667</v>
+        <v>15488</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="C44" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="D44" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="E44" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="F44" t="n">
-        <v>12.2498</v>
+        <v>76.1361</v>
       </c>
       <c r="G44" t="n">
-        <v>15478.83333333333</v>
+        <v>15482.16666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>15510</v>
       </c>
       <c r="F45" t="n">
-        <v>3.8002</v>
+        <v>12.2498</v>
       </c>
       <c r="G45" t="n">
-        <v>15475.5</v>
+        <v>15478.83333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="C46" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="D46" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="E46" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="F46" t="n">
-        <v>4.7108</v>
+        <v>3.8002</v>
       </c>
       <c r="G46" t="n">
-        <v>15471.83333333333</v>
+        <v>15475.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>15520</v>
       </c>
       <c r="F47" t="n">
-        <v>6.8305</v>
+        <v>4.7108</v>
       </c>
       <c r="G47" t="n">
-        <v>15468.16666666667</v>
+        <v>15471.83333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15570</v>
+        <v>15520</v>
       </c>
       <c r="C48" t="n">
-        <v>15570</v>
+        <v>15520</v>
       </c>
       <c r="D48" t="n">
-        <v>15570</v>
+        <v>15520</v>
       </c>
       <c r="E48" t="n">
-        <v>15570</v>
+        <v>15520</v>
       </c>
       <c r="F48" t="n">
-        <v>0.033</v>
+        <v>6.8305</v>
       </c>
       <c r="G48" t="n">
-        <v>15463.33333333333</v>
+        <v>15468.16666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15520</v>
+        <v>15570</v>
       </c>
       <c r="C49" t="n">
-        <v>15520</v>
+        <v>15570</v>
       </c>
       <c r="D49" t="n">
-        <v>15520</v>
+        <v>15570</v>
       </c>
       <c r="E49" t="n">
-        <v>15520</v>
+        <v>15570</v>
       </c>
       <c r="F49" t="n">
-        <v>3.877</v>
+        <v>0.033</v>
       </c>
       <c r="G49" t="n">
-        <v>15460.16666666667</v>
+        <v>15463.33333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15540</v>
+        <v>15520</v>
       </c>
       <c r="C50" t="n">
-        <v>15580</v>
+        <v>15520</v>
       </c>
       <c r="D50" t="n">
-        <v>15580</v>
+        <v>15520</v>
       </c>
       <c r="E50" t="n">
-        <v>15540</v>
+        <v>15520</v>
       </c>
       <c r="F50" t="n">
-        <v>137.009</v>
+        <v>3.877</v>
       </c>
       <c r="G50" t="n">
-        <v>15461.33333333333</v>
+        <v>15460.16666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15580</v>
+        <v>15540</v>
       </c>
       <c r="C51" t="n">
         <v>15580</v>
       </c>
       <c r="D51" t="n">
-        <v>15600</v>
+        <v>15580</v>
       </c>
       <c r="E51" t="n">
-        <v>15580</v>
+        <v>15540</v>
       </c>
       <c r="F51" t="n">
-        <v>256.7351</v>
+        <v>137.009</v>
       </c>
       <c r="G51" t="n">
-        <v>15460.16666666667</v>
+        <v>15461.33333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,28 +2183,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15520</v>
+        <v>15580</v>
       </c>
       <c r="C52" t="n">
-        <v>15520</v>
+        <v>15580</v>
       </c>
       <c r="D52" t="n">
-        <v>15520</v>
+        <v>15600</v>
       </c>
       <c r="E52" t="n">
-        <v>15520</v>
+        <v>15580</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>256.7351</v>
       </c>
       <c r="G52" t="n">
-        <v>15458</v>
+        <v>15460.16666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15570</v>
+        <v>15520</v>
       </c>
       <c r="C53" t="n">
-        <v>15580</v>
+        <v>15520</v>
       </c>
       <c r="D53" t="n">
-        <v>15580</v>
+        <v>15520</v>
       </c>
       <c r="E53" t="n">
-        <v>15570</v>
+        <v>15520</v>
       </c>
       <c r="F53" t="n">
-        <v>0.066</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>15456.83333333333</v>
+        <v>15458</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,28 +2253,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15530</v>
+        <v>15570</v>
       </c>
       <c r="C54" t="n">
-        <v>15520</v>
+        <v>15580</v>
       </c>
       <c r="D54" t="n">
-        <v>15530</v>
+        <v>15580</v>
       </c>
       <c r="E54" t="n">
-        <v>15520</v>
+        <v>15570</v>
       </c>
       <c r="F54" t="n">
-        <v>25.408</v>
+        <v>0.066</v>
       </c>
       <c r="G54" t="n">
-        <v>15456.16666666667</v>
+        <v>15456.83333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2288,28 +2288,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15550</v>
+        <v>15530</v>
       </c>
       <c r="C55" t="n">
-        <v>15550</v>
+        <v>15520</v>
       </c>
       <c r="D55" t="n">
-        <v>15550</v>
+        <v>15530</v>
       </c>
       <c r="E55" t="n">
-        <v>15550</v>
+        <v>15520</v>
       </c>
       <c r="F55" t="n">
-        <v>0.033</v>
+        <v>25.408</v>
       </c>
       <c r="G55" t="n">
-        <v>15456</v>
+        <v>15456.16666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15530</v>
+        <v>15550</v>
       </c>
       <c r="C56" t="n">
-        <v>15520</v>
+        <v>15550</v>
       </c>
       <c r="D56" t="n">
-        <v>15530</v>
+        <v>15550</v>
       </c>
       <c r="E56" t="n">
-        <v>15520</v>
+        <v>15550</v>
       </c>
       <c r="F56" t="n">
-        <v>3.8129</v>
+        <v>0.033</v>
       </c>
       <c r="G56" t="n">
-        <v>15456.33333333333</v>
+        <v>15456</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>15520</v>
       </c>
       <c r="F57" t="n">
-        <v>7.3262</v>
+        <v>3.8129</v>
       </c>
       <c r="G57" t="n">
-        <v>15457.16666666667</v>
+        <v>15456.33333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>15530</v>
       </c>
       <c r="C58" t="n">
-        <v>15530</v>
+        <v>15520</v>
       </c>
       <c r="D58" t="n">
         <v>15530</v>
       </c>
       <c r="E58" t="n">
-        <v>15530</v>
+        <v>15520</v>
       </c>
       <c r="F58" t="n">
-        <v>0.066</v>
+        <v>7.3262</v>
       </c>
       <c r="G58" t="n">
-        <v>15458.5</v>
+        <v>15457.16666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15490</v>
+        <v>15530</v>
       </c>
       <c r="C59" t="n">
-        <v>15490</v>
+        <v>15530</v>
       </c>
       <c r="D59" t="n">
-        <v>15490</v>
+        <v>15530</v>
       </c>
       <c r="E59" t="n">
-        <v>15490</v>
+        <v>15530</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0.066</v>
       </c>
       <c r="G59" t="n">
-        <v>15459.83333333333</v>
+        <v>15458.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>15490</v>
       </c>
       <c r="F60" t="n">
-        <v>45.2374</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>15460.5</v>
+        <v>15459.83333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15480</v>
+        <v>15490</v>
       </c>
       <c r="C61" t="n">
-        <v>15480</v>
+        <v>15490</v>
       </c>
       <c r="D61" t="n">
-        <v>15480</v>
+        <v>15490</v>
       </c>
       <c r="E61" t="n">
-        <v>15480</v>
+        <v>15490</v>
       </c>
       <c r="F61" t="n">
-        <v>26.806</v>
+        <v>45.2374</v>
       </c>
       <c r="G61" t="n">
-        <v>15461</v>
+        <v>15460.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>15480</v>
       </c>
       <c r="F62" t="n">
-        <v>58.4074</v>
+        <v>26.806</v>
       </c>
       <c r="G62" t="n">
-        <v>15462.16666666667</v>
+        <v>15461</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15430</v>
+        <v>15480</v>
       </c>
       <c r="C63" t="n">
-        <v>15430</v>
+        <v>15480</v>
       </c>
       <c r="D63" t="n">
-        <v>15430</v>
+        <v>15480</v>
       </c>
       <c r="E63" t="n">
-        <v>15430</v>
+        <v>15480</v>
       </c>
       <c r="F63" t="n">
-        <v>1.5726</v>
+        <v>58.4074</v>
       </c>
       <c r="G63" t="n">
-        <v>15461.83333333333</v>
+        <v>15462.16666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="C64" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="D64" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="E64" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1538</v>
+        <v>1.5726</v>
       </c>
       <c r="G64" t="n">
-        <v>15462.5</v>
+        <v>15461.83333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15440</v>
+        <v>15490</v>
       </c>
       <c r="C65" t="n">
-        <v>15440</v>
+        <v>15490</v>
       </c>
       <c r="D65" t="n">
-        <v>15440</v>
+        <v>15490</v>
       </c>
       <c r="E65" t="n">
-        <v>15440</v>
+        <v>15490</v>
       </c>
       <c r="F65" t="n">
-        <v>1.9434</v>
+        <v>0.1538</v>
       </c>
       <c r="G65" t="n">
-        <v>15462.83333333333</v>
+        <v>15462.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="C66" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="D66" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="E66" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="F66" t="n">
-        <v>46.7589</v>
+        <v>1.9434</v>
       </c>
       <c r="G66" t="n">
-        <v>15462.66666666667</v>
+        <v>15462.83333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>15430</v>
       </c>
       <c r="F67" t="n">
-        <v>2.295</v>
+        <v>46.7589</v>
       </c>
       <c r="G67" t="n">
-        <v>15463</v>
+        <v>15462.66666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>15430</v>
       </c>
       <c r="F68" t="n">
-        <v>75.90049999999999</v>
+        <v>2.295</v>
       </c>
       <c r="G68" t="n">
-        <v>15462.66666666667</v>
+        <v>15463</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>15430</v>
       </c>
       <c r="F69" t="n">
-        <v>36.2742</v>
+        <v>75.90049999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>15462.33333333333</v>
+        <v>15462.66666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>15430</v>
       </c>
       <c r="F70" t="n">
-        <v>44.9252</v>
+        <v>36.2742</v>
       </c>
       <c r="G70" t="n">
-        <v>15462</v>
+        <v>15462.33333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>15430</v>
       </c>
       <c r="F71" t="n">
-        <v>48.158</v>
+        <v>44.9252</v>
       </c>
       <c r="G71" t="n">
-        <v>15462.33333333333</v>
+        <v>15462</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,19 +2883,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15410</v>
+        <v>15430</v>
       </c>
       <c r="C72" t="n">
-        <v>15410</v>
+        <v>15430</v>
       </c>
       <c r="D72" t="n">
-        <v>15410</v>
+        <v>15430</v>
       </c>
       <c r="E72" t="n">
-        <v>15410</v>
+        <v>15430</v>
       </c>
       <c r="F72" t="n">
-        <v>85.8158</v>
+        <v>48.158</v>
       </c>
       <c r="G72" t="n">
         <v>15462.33333333333</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="C73" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="D73" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="E73" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="F73" t="n">
-        <v>7.367</v>
+        <v>85.8158</v>
       </c>
       <c r="G73" t="n">
-        <v>15462.66666666667</v>
+        <v>15462.33333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>15430</v>
       </c>
       <c r="F74" t="n">
-        <v>2.654</v>
+        <v>7.367</v>
       </c>
       <c r="G74" t="n">
-        <v>15463</v>
+        <v>15462.66666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,19 +2988,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15400</v>
+        <v>15430</v>
       </c>
       <c r="C75" t="n">
-        <v>15400</v>
+        <v>15430</v>
       </c>
       <c r="D75" t="n">
-        <v>15400</v>
+        <v>15430</v>
       </c>
       <c r="E75" t="n">
-        <v>15400</v>
+        <v>15430</v>
       </c>
       <c r="F75" t="n">
-        <v>59.4033</v>
+        <v>2.654</v>
       </c>
       <c r="G75" t="n">
         <v>15463</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="C76" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="D76" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="E76" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="F76" t="n">
-        <v>2.459</v>
+        <v>59.4033</v>
       </c>
       <c r="G76" t="n">
-        <v>15462.83333333333</v>
+        <v>15463</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>15390</v>
       </c>
       <c r="F77" t="n">
-        <v>15.236</v>
+        <v>2.459</v>
       </c>
       <c r="G77" t="n">
-        <v>15462.66666666667</v>
+        <v>15462.83333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15380</v>
+        <v>15390</v>
       </c>
       <c r="C78" t="n">
-        <v>15380</v>
+        <v>15390</v>
       </c>
       <c r="D78" t="n">
-        <v>15380</v>
+        <v>15390</v>
       </c>
       <c r="E78" t="n">
-        <v>15380</v>
+        <v>15390</v>
       </c>
       <c r="F78" t="n">
-        <v>6.1299</v>
+        <v>15.236</v>
       </c>
       <c r="G78" t="n">
-        <v>15462.33333333333</v>
+        <v>15462.66666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>15380</v>
       </c>
       <c r="F79" t="n">
-        <v>14.544</v>
+        <v>6.1299</v>
       </c>
       <c r="G79" t="n">
-        <v>15462</v>
+        <v>15462.33333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15370</v>
+        <v>15380</v>
       </c>
       <c r="C80" t="n">
-        <v>15370</v>
+        <v>15380</v>
       </c>
       <c r="D80" t="n">
-        <v>15370</v>
+        <v>15380</v>
       </c>
       <c r="E80" t="n">
-        <v>15370</v>
+        <v>15380</v>
       </c>
       <c r="F80" t="n">
-        <v>59.7861</v>
+        <v>14.544</v>
       </c>
       <c r="G80" t="n">
-        <v>15461.5</v>
+        <v>15462</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>15370</v>
       </c>
       <c r="F81" t="n">
-        <v>5.8365</v>
+        <v>59.7861</v>
       </c>
       <c r="G81" t="n">
-        <v>15461.16666666667</v>
+        <v>15461.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15360</v>
+        <v>15370</v>
       </c>
       <c r="C82" t="n">
-        <v>15350</v>
+        <v>15370</v>
       </c>
       <c r="D82" t="n">
-        <v>15360</v>
+        <v>15370</v>
       </c>
       <c r="E82" t="n">
-        <v>15350</v>
+        <v>15370</v>
       </c>
       <c r="F82" t="n">
-        <v>2.3878</v>
+        <v>5.8365</v>
       </c>
       <c r="G82" t="n">
-        <v>15460.5</v>
+        <v>15461.16666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>15350</v>
       </c>
       <c r="F83" t="n">
-        <v>25.5742</v>
+        <v>2.3878</v>
       </c>
       <c r="G83" t="n">
-        <v>15459.5</v>
+        <v>15460.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15340</v>
+        <v>15360</v>
       </c>
       <c r="C84" t="n">
-        <v>15340</v>
+        <v>15350</v>
       </c>
       <c r="D84" t="n">
-        <v>15340</v>
+        <v>15360</v>
       </c>
       <c r="E84" t="n">
-        <v>15340</v>
+        <v>15350</v>
       </c>
       <c r="F84" t="n">
-        <v>15.1039</v>
+        <v>25.5742</v>
       </c>
       <c r="G84" t="n">
-        <v>15458.66666666667</v>
+        <v>15459.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15330</v>
+        <v>15340</v>
       </c>
       <c r="C85" t="n">
-        <v>15300</v>
+        <v>15340</v>
       </c>
       <c r="D85" t="n">
-        <v>15330</v>
+        <v>15340</v>
       </c>
       <c r="E85" t="n">
-        <v>15300</v>
+        <v>15340</v>
       </c>
       <c r="F85" t="n">
-        <v>45</v>
+        <v>15.1039</v>
       </c>
       <c r="G85" t="n">
-        <v>15456.83333333333</v>
+        <v>15458.66666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15300</v>
+        <v>15330</v>
       </c>
       <c r="C86" t="n">
         <v>15300</v>
       </c>
       <c r="D86" t="n">
-        <v>15300</v>
+        <v>15330</v>
       </c>
       <c r="E86" t="n">
         <v>15300</v>
       </c>
       <c r="F86" t="n">
-        <v>8.387</v>
+        <v>45</v>
       </c>
       <c r="G86" t="n">
-        <v>15455</v>
+        <v>15456.83333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>15300</v>
       </c>
       <c r="F87" t="n">
-        <v>12.8</v>
+        <v>8.387</v>
       </c>
       <c r="G87" t="n">
-        <v>15452</v>
+        <v>15455</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15310</v>
+        <v>15300</v>
       </c>
       <c r="C88" t="n">
-        <v>15320</v>
+        <v>15300</v>
       </c>
       <c r="D88" t="n">
-        <v>15320</v>
+        <v>15300</v>
       </c>
       <c r="E88" t="n">
-        <v>15310</v>
+        <v>15300</v>
       </c>
       <c r="F88" t="n">
-        <v>50.7396</v>
+        <v>12.8</v>
       </c>
       <c r="G88" t="n">
-        <v>15448.83333333333</v>
+        <v>15452</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="C89" t="n">
         <v>15320</v>
@@ -3487,13 +3487,13 @@
         <v>15320</v>
       </c>
       <c r="E89" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="F89" t="n">
-        <v>13.497</v>
+        <v>50.7396</v>
       </c>
       <c r="G89" t="n">
-        <v>15445.83333333333</v>
+        <v>15448.83333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15330</v>
+        <v>15320</v>
       </c>
       <c r="C90" t="n">
         <v>15320</v>
       </c>
       <c r="D90" t="n">
-        <v>15330</v>
+        <v>15320</v>
       </c>
       <c r="E90" t="n">
         <v>15320</v>
       </c>
       <c r="F90" t="n">
-        <v>39.9327</v>
+        <v>13.497</v>
       </c>
       <c r="G90" t="n">
-        <v>15442.66666666667</v>
+        <v>15445.83333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15320</v>
+        <v>15330</v>
       </c>
       <c r="C91" t="n">
         <v>15320</v>
       </c>
       <c r="D91" t="n">
-        <v>15320</v>
+        <v>15330</v>
       </c>
       <c r="E91" t="n">
         <v>15320</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4599</v>
+        <v>39.9327</v>
       </c>
       <c r="G91" t="n">
-        <v>15439.5</v>
+        <v>15442.66666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>15320</v>
       </c>
       <c r="C92" t="n">
-        <v>15310</v>
+        <v>15320</v>
       </c>
       <c r="D92" t="n">
         <v>15320</v>
       </c>
       <c r="E92" t="n">
-        <v>15310</v>
+        <v>15320</v>
       </c>
       <c r="F92" t="n">
-        <v>12.2219</v>
+        <v>0.4599</v>
       </c>
       <c r="G92" t="n">
-        <v>15436.16666666667</v>
+        <v>15439.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15280</v>
+        <v>15320</v>
       </c>
       <c r="C93" t="n">
-        <v>15280</v>
+        <v>15310</v>
       </c>
       <c r="D93" t="n">
-        <v>15280</v>
+        <v>15320</v>
       </c>
       <c r="E93" t="n">
-        <v>15280</v>
+        <v>15310</v>
       </c>
       <c r="F93" t="n">
-        <v>55.7827</v>
+        <v>12.2219</v>
       </c>
       <c r="G93" t="n">
-        <v>15432.33333333333</v>
+        <v>15436.16666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>15280</v>
       </c>
       <c r="C94" t="n">
-        <v>15270</v>
+        <v>15280</v>
       </c>
       <c r="D94" t="n">
         <v>15280</v>
       </c>
       <c r="E94" t="n">
-        <v>15270</v>
+        <v>15280</v>
       </c>
       <c r="F94" t="n">
-        <v>30.801</v>
+        <v>55.7827</v>
       </c>
       <c r="G94" t="n">
-        <v>15429.5</v>
+        <v>15432.33333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15260</v>
+        <v>15280</v>
       </c>
       <c r="C95" t="n">
-        <v>15260</v>
+        <v>15270</v>
       </c>
       <c r="D95" t="n">
-        <v>15260</v>
+        <v>15280</v>
       </c>
       <c r="E95" t="n">
-        <v>15260</v>
+        <v>15270</v>
       </c>
       <c r="F95" t="n">
-        <v>12.5332</v>
+        <v>30.801</v>
       </c>
       <c r="G95" t="n">
-        <v>15425.66666666667</v>
+        <v>15429.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,23 +3735,19 @@
         <v>15260</v>
       </c>
       <c r="F96" t="n">
-        <v>11.6572</v>
+        <v>12.5332</v>
       </c>
       <c r="G96" t="n">
-        <v>15423.16666666667</v>
+        <v>15425.66666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K96" t="n">
-        <v>15260</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3765,19 +3761,19 @@
         <v>15260</v>
       </c>
       <c r="C97" t="n">
-        <v>15200</v>
+        <v>15260</v>
       </c>
       <c r="D97" t="n">
         <v>15260</v>
       </c>
       <c r="E97" t="n">
-        <v>15200</v>
+        <v>15260</v>
       </c>
       <c r="F97" t="n">
-        <v>209.9491</v>
+        <v>11.6572</v>
       </c>
       <c r="G97" t="n">
-        <v>15419.66666666667</v>
+        <v>15423.16666666667</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3791,54 +3787,50 @@
       <c r="K97" t="n">
         <v>15260</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C98" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F98" t="n">
+        <v>209.9491</v>
+      </c>
+      <c r="G98" t="n">
+        <v>15419.66666666667</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K98" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C98" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D98" t="n">
-        <v>15210</v>
-      </c>
-      <c r="E98" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F98" t="n">
-        <v>102.5351</v>
-      </c>
-      <c r="G98" t="n">
-        <v>15416.16666666667</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K98" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3848,22 +3840,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C99" t="n">
         <v>15200</v>
       </c>
-      <c r="C99" t="n">
-        <v>15150</v>
-      </c>
       <c r="D99" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E99" t="n">
         <v>15200</v>
       </c>
-      <c r="E99" t="n">
-        <v>15150</v>
-      </c>
       <c r="F99" t="n">
-        <v>19.9032</v>
+        <v>102.5351</v>
       </c>
       <c r="G99" t="n">
-        <v>15411</v>
+        <v>15416.16666666667</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -3891,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="C100" t="n">
-        <v>15210</v>
+        <v>15150</v>
       </c>
       <c r="D100" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="E100" t="n">
-        <v>15210</v>
+        <v>15150</v>
       </c>
       <c r="F100" t="n">
-        <v>326.7</v>
+        <v>19.9032</v>
       </c>
       <c r="G100" t="n">
-        <v>15407.66666666667</v>
+        <v>15411</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -3915,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>15150</v>
+        <v>15200</v>
       </c>
       <c r="K100" t="n">
         <v>15260</v>
@@ -3934,22 +3926,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15160</v>
+        <v>15210</v>
       </c>
       <c r="C101" t="n">
-        <v>15160</v>
+        <v>15210</v>
       </c>
       <c r="D101" t="n">
-        <v>15160</v>
+        <v>15210</v>
       </c>
       <c r="E101" t="n">
-        <v>15160</v>
+        <v>15210</v>
       </c>
       <c r="F101" t="n">
-        <v>13.73</v>
+        <v>326.7</v>
       </c>
       <c r="G101" t="n">
-        <v>15403.5</v>
+        <v>15407.66666666667</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -3958,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>15210</v>
+        <v>15150</v>
       </c>
       <c r="K101" t="n">
         <v>15260</v>
@@ -3980,19 +3972,19 @@
         <v>15160</v>
       </c>
       <c r="C102" t="n">
-        <v>15270</v>
+        <v>15160</v>
       </c>
       <c r="D102" t="n">
-        <v>15270</v>
+        <v>15160</v>
       </c>
       <c r="E102" t="n">
-        <v>15150</v>
+        <v>15160</v>
       </c>
       <c r="F102" t="n">
-        <v>68.9727</v>
+        <v>13.73</v>
       </c>
       <c r="G102" t="n">
-        <v>15401.16666666667</v>
+        <v>15403.5</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -4001,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>15160</v>
+        <v>15210</v>
       </c>
       <c r="K102" t="n">
         <v>15260</v>
@@ -4020,30 +4012,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15250</v>
+        <v>15160</v>
       </c>
       <c r="C103" t="n">
-        <v>15250</v>
+        <v>15270</v>
       </c>
       <c r="D103" t="n">
-        <v>15250</v>
+        <v>15270</v>
       </c>
       <c r="E103" t="n">
-        <v>15250</v>
+        <v>15150</v>
       </c>
       <c r="F103" t="n">
-        <v>10.8988</v>
+        <v>68.9727</v>
       </c>
       <c r="G103" t="n">
-        <v>15398.66666666667</v>
+        <v>15401.16666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15160</v>
+      </c>
       <c r="K103" t="n">
         <v>15260</v>
       </c>
@@ -4056,6 +4050,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C104" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10.8988</v>
+      </c>
+      <c r="G104" t="n">
+        <v>15398.66666666667</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.6202</v>
       </c>
       <c r="G2" t="n">
+        <v>15574.66666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>15692.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>141.0986</v>
       </c>
       <c r="G3" t="n">
+        <v>15552.66666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>15685.66666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>12.487</v>
       </c>
       <c r="G4" t="n">
+        <v>15525.33333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>15679.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>148.975</v>
       </c>
       <c r="G5" t="n">
+        <v>15508</v>
+      </c>
+      <c r="H5" t="n">
         <v>15673.33333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>61.602</v>
       </c>
       <c r="G6" t="n">
+        <v>15502</v>
+      </c>
+      <c r="H6" t="n">
         <v>15666.66666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>50.2863</v>
       </c>
       <c r="G7" t="n">
+        <v>15488</v>
+      </c>
+      <c r="H7" t="n">
         <v>15660.33333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>29.9999</v>
       </c>
       <c r="G8" t="n">
+        <v>15472</v>
+      </c>
+      <c r="H8" t="n">
         <v>15653.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>61.81</v>
       </c>
       <c r="G9" t="n">
+        <v>15458.66666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>15647</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>55.941</v>
       </c>
       <c r="G10" t="n">
+        <v>15451.33333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>15640.66666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2.6504</v>
       </c>
       <c r="G11" t="n">
+        <v>15444</v>
+      </c>
+      <c r="H11" t="n">
         <v>15634.16666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>113.6866</v>
       </c>
       <c r="G12" t="n">
+        <v>15438</v>
+      </c>
+      <c r="H12" t="n">
         <v>15627.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>9.8687</v>
       </c>
       <c r="G13" t="n">
+        <v>15434</v>
+      </c>
+      <c r="H13" t="n">
         <v>15620.66666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>264.2772</v>
       </c>
       <c r="G14" t="n">
+        <v>15431.33333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>15613.83333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>11.4135</v>
       </c>
       <c r="G15" t="n">
+        <v>15431.33333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>15607</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>149.93</v>
       </c>
       <c r="G16" t="n">
+        <v>15428</v>
+      </c>
+      <c r="H16" t="n">
         <v>15600</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>87.33759999999999</v>
       </c>
       <c r="G17" t="n">
+        <v>15424.66666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>15593</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2.8314</v>
       </c>
       <c r="G18" t="n">
+        <v>15424</v>
+      </c>
+      <c r="H18" t="n">
         <v>15586.16666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>7.8288</v>
       </c>
       <c r="G19" t="n">
+        <v>15420.66666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>15579.33333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>5.827</v>
       </c>
       <c r="G20" t="n">
+        <v>15417.33333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>15572.33333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>11.11</v>
       </c>
       <c r="G21" t="n">
+        <v>15416</v>
+      </c>
+      <c r="H21" t="n">
         <v>15566.33333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>70.6692</v>
       </c>
       <c r="G22" t="n">
+        <v>15412.66666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>15560.16666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>54.0791</v>
       </c>
       <c r="G23" t="n">
+        <v>15411.33333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>15554.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>194.4763789746918</v>
       </c>
       <c r="G24" t="n">
+        <v>15408.66666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>15549.83333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>166.3014</v>
       </c>
       <c r="G25" t="n">
+        <v>15404.66666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>15544.83333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>7.5231</v>
       </c>
       <c r="G26" t="n">
+        <v>15402</v>
+      </c>
+      <c r="H26" t="n">
         <v>15540.16666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>15.76052102530824</v>
       </c>
       <c r="G27" t="n">
+        <v>15402</v>
+      </c>
+      <c r="H27" t="n">
         <v>15535.66666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>49</v>
       </c>
       <c r="G28" t="n">
+        <v>15406.66666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>15532.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>0.034</v>
       </c>
       <c r="G29" t="n">
+        <v>15413.33333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>15529.83333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>12.5876</v>
       </c>
       <c r="G30" t="n">
+        <v>15419.33333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>15526.83333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2.0569</v>
       </c>
       <c r="G31" t="n">
+        <v>15426.66666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>15524</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1.0593</v>
       </c>
       <c r="G32" t="n">
+        <v>15434</v>
+      </c>
+      <c r="H32" t="n">
         <v>15521.16666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1.146</v>
       </c>
       <c r="G33" t="n">
+        <v>15441.33333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>15519.5</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>0.4486</v>
       </c>
       <c r="G34" t="n">
+        <v>15448.66666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>15517.83333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1.9613</v>
       </c>
       <c r="G35" t="n">
+        <v>15451.33333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>15515</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>47.9192</v>
       </c>
       <c r="G36" t="n">
+        <v>15457.33333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>15512.33333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>63.4475</v>
       </c>
       <c r="G37" t="n">
+        <v>15458.66666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>15508</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>40.8072</v>
       </c>
       <c r="G38" t="n">
+        <v>15460</v>
+      </c>
+      <c r="H38" t="n">
         <v>15503.66666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>33.8265</v>
       </c>
       <c r="G39" t="n">
+        <v>15460</v>
+      </c>
+      <c r="H39" t="n">
         <v>15500.66666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>0.3524</v>
       </c>
       <c r="G40" t="n">
+        <v>15464.66666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>15498.16666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>5.9109</v>
       </c>
       <c r="G41" t="n">
+        <v>15464.66666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>15495.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3.41</v>
       </c>
       <c r="G42" t="n">
+        <v>15464.66666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>15492.83333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>7.1185</v>
       </c>
       <c r="G43" t="n">
+        <v>15460</v>
+      </c>
+      <c r="H43" t="n">
         <v>15488</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>76.1361</v>
       </c>
       <c r="G44" t="n">
+        <v>15452.66666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>15482.16666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>12.2498</v>
       </c>
       <c r="G45" t="n">
+        <v>15453.33333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>15478.83333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>3.8002</v>
       </c>
       <c r="G46" t="n">
+        <v>15453.33333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>15475.5</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4.7108</v>
       </c>
       <c r="G47" t="n">
+        <v>15454</v>
+      </c>
+      <c r="H47" t="n">
         <v>15471.83333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>6.8305</v>
       </c>
       <c r="G48" t="n">
+        <v>15454.66666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>15468.16666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>0.033</v>
       </c>
       <c r="G49" t="n">
+        <v>15458.66666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>15463.33333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>3.877</v>
       </c>
       <c r="G50" t="n">
+        <v>15464</v>
+      </c>
+      <c r="H50" t="n">
         <v>15460.16666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>137.009</v>
       </c>
       <c r="G51" t="n">
+        <v>15470</v>
+      </c>
+      <c r="H51" t="n">
         <v>15461.33333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>256.7351</v>
       </c>
       <c r="G52" t="n">
+        <v>15481.33333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>15460.16666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
+        <v>15488.66666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>15458</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>0.066</v>
       </c>
       <c r="G54" t="n">
+        <v>15500</v>
+      </c>
+      <c r="H54" t="n">
         <v>15456.83333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>25.408</v>
       </c>
       <c r="G55" t="n">
+        <v>15504</v>
+      </c>
+      <c r="H55" t="n">
         <v>15456.16666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>0.033</v>
       </c>
       <c r="G56" t="n">
+        <v>15513.33333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>15456</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3.8129</v>
       </c>
       <c r="G57" t="n">
+        <v>15520.66666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>15456.33333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>7.3262</v>
       </c>
       <c r="G58" t="n">
+        <v>15528</v>
+      </c>
+      <c r="H58" t="n">
         <v>15457.16666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>0.066</v>
       </c>
       <c r="G59" t="n">
+        <v>15536.66666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>15458.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>2</v>
       </c>
       <c r="G60" t="n">
+        <v>15535.33333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>15459.83333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>45.2374</v>
       </c>
       <c r="G61" t="n">
+        <v>15534</v>
+      </c>
+      <c r="H61" t="n">
         <v>15460.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>26.806</v>
       </c>
       <c r="G62" t="n">
+        <v>15531.33333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>15461</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>58.4074</v>
       </c>
       <c r="G63" t="n">
+        <v>15528.66666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>15462.16666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1.5726</v>
       </c>
       <c r="G64" t="n">
+        <v>15519.33333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>15461.83333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,25 @@
         <v>0.1538</v>
       </c>
       <c r="G65" t="n">
+        <v>15517.33333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>15462.5</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L65" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2889,29 @@
         <v>1.9434</v>
       </c>
       <c r="G66" t="n">
+        <v>15508</v>
+      </c>
+      <c r="H66" t="n">
         <v>15462.83333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15490</v>
+      </c>
+      <c r="L66" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2935,29 @@
         <v>46.7589</v>
       </c>
       <c r="G67" t="n">
+        <v>15498</v>
+      </c>
+      <c r="H67" t="n">
         <v>15462.66666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15440</v>
+      </c>
+      <c r="L67" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2981,25 @@
         <v>2.295</v>
       </c>
       <c r="G68" t="n">
+        <v>15492</v>
+      </c>
+      <c r="H68" t="n">
         <v>15463</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L68" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3023,29 @@
         <v>75.90049999999999</v>
       </c>
       <c r="G69" t="n">
+        <v>15482</v>
+      </c>
+      <c r="H69" t="n">
         <v>15462.66666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L69" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3069,29 @@
         <v>36.2742</v>
       </c>
       <c r="G70" t="n">
+        <v>15476</v>
+      </c>
+      <c r="H70" t="n">
         <v>15462.33333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L70" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3115,25 @@
         <v>44.9252</v>
       </c>
       <c r="G71" t="n">
+        <v>15468</v>
+      </c>
+      <c r="H71" t="n">
         <v>15462</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L71" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3157,29 @@
         <v>48.158</v>
       </c>
       <c r="G72" t="n">
+        <v>15462</v>
+      </c>
+      <c r="H72" t="n">
         <v>15462.33333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L72" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3203,29 @@
         <v>85.8158</v>
       </c>
       <c r="G73" t="n">
+        <v>15454.66666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>15462.33333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L73" t="n">
+        <v>15430</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3249,25 @@
         <v>7.367</v>
       </c>
       <c r="G74" t="n">
+        <v>15448</v>
+      </c>
+      <c r="H74" t="n">
         <v>15462.66666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>15410</v>
+      </c>
+      <c r="L74" t="n">
+        <v>15410</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3291,29 @@
         <v>2.654</v>
       </c>
       <c r="G75" t="n">
+        <v>15444</v>
+      </c>
+      <c r="H75" t="n">
         <v>15463</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L75" t="n">
+        <v>15410</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3337,29 @@
         <v>59.4033</v>
       </c>
       <c r="G76" t="n">
+        <v>15438</v>
+      </c>
+      <c r="H76" t="n">
         <v>15463</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L76" t="n">
+        <v>15410</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3383,25 @@
         <v>2.459</v>
       </c>
       <c r="G77" t="n">
+        <v>15432</v>
+      </c>
+      <c r="H77" t="n">
         <v>15462.83333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>15400</v>
+      </c>
+      <c r="L77" t="n">
+        <v>15400</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3425,29 @@
         <v>15.236</v>
       </c>
       <c r="G78" t="n">
+        <v>15426</v>
+      </c>
+      <c r="H78" t="n">
         <v>15462.66666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>15390</v>
+      </c>
+      <c r="L78" t="n">
+        <v>15400</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3471,29 @@
         <v>6.1299</v>
       </c>
       <c r="G79" t="n">
+        <v>15422.66666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>15462.33333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>15390</v>
+      </c>
+      <c r="L79" t="n">
+        <v>15400</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3517,25 @@
         <v>14.544</v>
       </c>
       <c r="G80" t="n">
+        <v>15415.33333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>15462</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>15380</v>
+      </c>
+      <c r="L80" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3559,29 @@
         <v>59.7861</v>
       </c>
       <c r="G81" t="n">
+        <v>15410.66666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>15461.5</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>15380</v>
+      </c>
+      <c r="L81" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3605,29 @@
         <v>5.8365</v>
       </c>
       <c r="G82" t="n">
+        <v>15406.66666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>15461.16666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15370</v>
+      </c>
+      <c r="L82" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3651,29 @@
         <v>2.3878</v>
       </c>
       <c r="G83" t="n">
+        <v>15401.33333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>15460.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15370</v>
+      </c>
+      <c r="L83" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3697,29 @@
         <v>25.5742</v>
       </c>
       <c r="G84" t="n">
+        <v>15396</v>
+      </c>
+      <c r="H84" t="n">
         <v>15459.5</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>15350</v>
+      </c>
+      <c r="L84" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3743,29 @@
         <v>15.1039</v>
       </c>
       <c r="G85" t="n">
+        <v>15390</v>
+      </c>
+      <c r="H85" t="n">
         <v>15458.66666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>15350</v>
+      </c>
+      <c r="L85" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3789,29 @@
         <v>45</v>
       </c>
       <c r="G86" t="n">
+        <v>15381.33333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>15456.83333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>15340</v>
+      </c>
+      <c r="L86" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3835,29 @@
         <v>8.387</v>
       </c>
       <c r="G87" t="n">
+        <v>15372.66666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>15455</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>15300</v>
+      </c>
+      <c r="L87" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3881,29 @@
         <v>12.8</v>
       </c>
       <c r="G88" t="n">
+        <v>15365.33333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>15452</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>15300</v>
+      </c>
+      <c r="L88" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3927,29 @@
         <v>50.7396</v>
       </c>
       <c r="G89" t="n">
+        <v>15358</v>
+      </c>
+      <c r="H89" t="n">
         <v>15448.83333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>15300</v>
+      </c>
+      <c r="L89" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3973,29 @@
         <v>13.497</v>
       </c>
       <c r="G90" t="n">
+        <v>15350.66666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>15445.83333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>15320</v>
+      </c>
+      <c r="L90" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4019,29 @@
         <v>39.9327</v>
       </c>
       <c r="G91" t="n">
+        <v>15345.33333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>15442.66666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>15320</v>
+      </c>
+      <c r="L91" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4065,29 @@
         <v>0.4599</v>
       </c>
       <c r="G92" t="n">
+        <v>15340.66666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>15439.5</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>15320</v>
+      </c>
+      <c r="L92" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4111,29 @@
         <v>12.2219</v>
       </c>
       <c r="G93" t="n">
+        <v>15335.33333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>15436.16666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>15320</v>
+      </c>
+      <c r="L93" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4157,29 @@
         <v>55.7827</v>
       </c>
       <c r="G94" t="n">
+        <v>15328.66666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>15432.33333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>15310</v>
+      </c>
+      <c r="L94" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4203,29 @@
         <v>30.801</v>
       </c>
       <c r="G95" t="n">
+        <v>15321.33333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>15429.5</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>15280</v>
+      </c>
+      <c r="L95" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4249,29 @@
         <v>12.5332</v>
       </c>
       <c r="G96" t="n">
+        <v>15314</v>
+      </c>
+      <c r="H96" t="n">
         <v>15425.66666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>15270</v>
+      </c>
+      <c r="L96" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,22 +4295,29 @@
         <v>11.6572</v>
       </c>
       <c r="G97" t="n">
+        <v>15306.66666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>15423.16666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>15260</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>15260</v>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,26 +4341,27 @@
         <v>209.9491</v>
       </c>
       <c r="G98" t="n">
+        <v>15296.66666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>15419.66666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K98" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,26 +4385,27 @@
         <v>102.5351</v>
       </c>
       <c r="G99" t="n">
+        <v>15286.66666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>15416.16666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K99" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,26 +4429,27 @@
         <v>19.9032</v>
       </c>
       <c r="G100" t="n">
+        <v>15274</v>
+      </c>
+      <c r="H100" t="n">
         <v>15411</v>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K100" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,26 +4473,29 @@
         <v>326.7</v>
       </c>
       <c r="G101" t="n">
+        <v>15268</v>
+      </c>
+      <c r="H101" t="n">
         <v>15407.66666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
         <v>15150</v>
       </c>
-      <c r="K101" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,26 +4519,27 @@
         <v>13.73</v>
       </c>
       <c r="G102" t="n">
+        <v>15258.66666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>15403.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>15210</v>
-      </c>
-      <c r="K102" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,26 +4563,29 @@
         <v>68.9727</v>
       </c>
       <c r="G103" t="n">
+        <v>15256.66666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>15401.16666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
         <v>15160</v>
       </c>
-      <c r="K103" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,24 +4609,487 @@
         <v>10.8988</v>
       </c>
       <c r="G104" t="n">
+        <v>15252</v>
+      </c>
+      <c r="H104" t="n">
         <v>15398.66666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
+        <v>15270</v>
+      </c>
+      <c r="L104" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D105" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.3712</v>
+      </c>
+      <c r="G105" t="n">
+        <v>15247.33333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15394.33333333333</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C106" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D106" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F106" t="n">
+        <v>60</v>
+      </c>
+      <c r="G106" t="n">
+        <v>15242.66666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>15390</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>15250</v>
+      </c>
+      <c r="L106" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C107" t="n">
         <v>15260</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="D107" t="n">
+        <v>15270</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10.0021</v>
+      </c>
+      <c r="G107" t="n">
+        <v>15238.66666666667</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15385.66666666667</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>15250</v>
+      </c>
+      <c r="L107" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F108" t="n">
+        <v>17.0767</v>
+      </c>
+      <c r="G108" t="n">
+        <v>15235.33333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>15381.33333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L108" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E109" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="G109" t="n">
+        <v>15234</v>
+      </c>
+      <c r="H109" t="n">
+        <v>15376.16666666667</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L109" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="G110" t="n">
+        <v>15233.33333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>15371.83333333333</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L110" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.1958</v>
+      </c>
+      <c r="G111" t="n">
+        <v>15233.33333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>15366.5</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L111" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F112" t="n">
+        <v>38.4619</v>
+      </c>
+      <c r="G112" t="n">
+        <v>15233.33333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>15361.16666666667</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L112" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D113" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E113" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16.4072</v>
+      </c>
+      <c r="G113" t="n">
+        <v>15237.33333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>15356.83333333333</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L113" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15330</v>
+      </c>
+      <c r="D114" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15330</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.0867</v>
+      </c>
+      <c r="G114" t="n">
+        <v>15246</v>
+      </c>
+      <c r="H114" t="n">
+        <v>15352.66666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>15260</v>
+      </c>
+      <c r="L114" t="n">
+        <v>15380</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="C2" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="D2" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="E2" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6202</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>15574.66666666667</v>
+        <v>-2100.217116047829</v>
       </c>
       <c r="H2" t="n">
-        <v>15692.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15460</v>
+        <v>15620</v>
       </c>
       <c r="C3" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="D3" t="n">
-        <v>15460</v>
+        <v>15620</v>
       </c>
       <c r="E3" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="F3" t="n">
-        <v>141.0986</v>
+        <v>63.1918</v>
       </c>
       <c r="G3" t="n">
-        <v>15552.66666666667</v>
+        <v>-2100.217116047829</v>
       </c>
       <c r="H3" t="n">
-        <v>15685.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="C4" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="D4" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="E4" t="n">
-        <v>15450</v>
+        <v>15600</v>
       </c>
       <c r="F4" t="n">
-        <v>12.487</v>
+        <v>223.7228</v>
       </c>
       <c r="G4" t="n">
-        <v>15525.33333333333</v>
+        <v>-2100.217116047829</v>
       </c>
       <c r="H4" t="n">
-        <v>15679.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15450</v>
+        <v>15690</v>
       </c>
       <c r="C5" t="n">
-        <v>15450</v>
+        <v>15650</v>
       </c>
       <c r="D5" t="n">
-        <v>15450</v>
+        <v>15690</v>
       </c>
       <c r="E5" t="n">
-        <v>15450</v>
+        <v>15650</v>
       </c>
       <c r="F5" t="n">
-        <v>148.975</v>
+        <v>182.9211</v>
       </c>
       <c r="G5" t="n">
-        <v>15508</v>
+        <v>-1917.296016047829</v>
       </c>
       <c r="H5" t="n">
-        <v>15673.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15420</v>
+        <v>15670</v>
       </c>
       <c r="C6" t="n">
-        <v>15420</v>
+        <v>15670</v>
       </c>
       <c r="D6" t="n">
-        <v>15420</v>
+        <v>15670</v>
       </c>
       <c r="E6" t="n">
-        <v>15420</v>
+        <v>15660</v>
       </c>
       <c r="F6" t="n">
-        <v>61.602</v>
+        <v>51.2324</v>
       </c>
       <c r="G6" t="n">
-        <v>15502</v>
+        <v>-1866.063616047829</v>
       </c>
       <c r="H6" t="n">
-        <v>15666.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="C7" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="D7" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="E7" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="F7" t="n">
-        <v>50.2863</v>
+        <v>9.569800000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>15488</v>
+        <v>-1866.063616047829</v>
       </c>
       <c r="H7" t="n">
-        <v>15660.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15410</v>
+        <v>15620</v>
       </c>
       <c r="C8" t="n">
-        <v>15410</v>
+        <v>15590</v>
       </c>
       <c r="D8" t="n">
-        <v>15410</v>
+        <v>15620</v>
       </c>
       <c r="E8" t="n">
-        <v>15410</v>
+        <v>15590</v>
       </c>
       <c r="F8" t="n">
-        <v>29.9999</v>
+        <v>138.2498</v>
       </c>
       <c r="G8" t="n">
-        <v>15472</v>
+        <v>-2004.313416047829</v>
       </c>
       <c r="H8" t="n">
-        <v>15653.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="C9" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="D9" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="E9" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="F9" t="n">
-        <v>61.81</v>
+        <v>11.3574</v>
       </c>
       <c r="G9" t="n">
-        <v>15458.66666666667</v>
+        <v>-1992.956016047829</v>
       </c>
       <c r="H9" t="n">
-        <v>15647</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="C10" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="D10" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="E10" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="F10" t="n">
-        <v>55.941</v>
+        <v>21.6624</v>
       </c>
       <c r="G10" t="n">
-        <v>15451.33333333333</v>
+        <v>-2014.618416047829</v>
       </c>
       <c r="H10" t="n">
-        <v>15640.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="C11" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="D11" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="E11" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="F11" t="n">
-        <v>2.6504</v>
+        <v>10.8267</v>
       </c>
       <c r="G11" t="n">
-        <v>15444</v>
+        <v>-2014.618416047829</v>
       </c>
       <c r="H11" t="n">
-        <v>15634.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="C12" t="n">
-        <v>15410</v>
+        <v>15700</v>
       </c>
       <c r="D12" t="n">
-        <v>15410</v>
+        <v>15700</v>
       </c>
       <c r="E12" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="F12" t="n">
-        <v>113.6866</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>15438</v>
+        <v>-1972.618416047829</v>
       </c>
       <c r="H12" t="n">
-        <v>15627.5</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="C13" t="n">
-        <v>15410</v>
+        <v>15750</v>
       </c>
       <c r="D13" t="n">
-        <v>15410</v>
+        <v>15750</v>
       </c>
       <c r="E13" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="F13" t="n">
-        <v>9.8687</v>
+        <v>27.2729</v>
       </c>
       <c r="G13" t="n">
-        <v>15434</v>
+        <v>-1945.345516047829</v>
       </c>
       <c r="H13" t="n">
-        <v>15620.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15410</v>
+        <v>15750</v>
       </c>
       <c r="C14" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="D14" t="n">
-        <v>15410</v>
+        <v>15870</v>
       </c>
       <c r="E14" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="F14" t="n">
-        <v>264.2772</v>
+        <v>79.00369999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>15431.33333333333</v>
+        <v>-2024.349216047829</v>
       </c>
       <c r="H14" t="n">
-        <v>15613.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="C15" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="D15" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="E15" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="F15" t="n">
-        <v>11.4135</v>
+        <v>17.01</v>
       </c>
       <c r="G15" t="n">
-        <v>15431.33333333333</v>
+        <v>-2024.349216047829</v>
       </c>
       <c r="H15" t="n">
-        <v>15607</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="C16" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="D16" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="E16" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="F16" t="n">
-        <v>149.93</v>
+        <v>29.7577</v>
       </c>
       <c r="G16" t="n">
-        <v>15428</v>
+        <v>-1994.591516047828</v>
       </c>
       <c r="H16" t="n">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="C17" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="D17" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="E17" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="F17" t="n">
-        <v>87.33759999999999</v>
+        <v>54.541</v>
       </c>
       <c r="G17" t="n">
-        <v>15424.66666666667</v>
+        <v>-1994.591516047828</v>
       </c>
       <c r="H17" t="n">
-        <v>15593</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15400</v>
+        <v>15850</v>
       </c>
       <c r="C18" t="n">
-        <v>15400</v>
+        <v>15860</v>
       </c>
       <c r="D18" t="n">
-        <v>15400</v>
+        <v>15860</v>
       </c>
       <c r="E18" t="n">
-        <v>15400</v>
+        <v>15850</v>
       </c>
       <c r="F18" t="n">
-        <v>2.8314</v>
+        <v>12.59212225725095</v>
       </c>
       <c r="G18" t="n">
-        <v>15424</v>
+        <v>-1981.999393790577</v>
       </c>
       <c r="H18" t="n">
-        <v>15586.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="C19" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="D19" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="E19" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="F19" t="n">
-        <v>7.8288</v>
+        <v>1.7775</v>
       </c>
       <c r="G19" t="n">
-        <v>15420.66666666667</v>
+        <v>-1983.776893790577</v>
       </c>
       <c r="H19" t="n">
-        <v>15579.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15400</v>
+        <v>15610</v>
       </c>
       <c r="C20" t="n">
-        <v>15400</v>
+        <v>15510</v>
       </c>
       <c r="D20" t="n">
-        <v>15400</v>
+        <v>15610</v>
       </c>
       <c r="E20" t="n">
-        <v>15400</v>
+        <v>15510</v>
       </c>
       <c r="F20" t="n">
-        <v>5.827</v>
+        <v>971.6543</v>
       </c>
       <c r="G20" t="n">
-        <v>15417.33333333333</v>
+        <v>-2955.431193790577</v>
       </c>
       <c r="H20" t="n">
-        <v>15572.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="C21" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="D21" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="E21" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="F21" t="n">
-        <v>11.11</v>
+        <v>1.0057</v>
       </c>
       <c r="G21" t="n">
-        <v>15416</v>
+        <v>-2954.425493790577</v>
       </c>
       <c r="H21" t="n">
-        <v>15566.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="C22" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="D22" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="E22" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="F22" t="n">
-        <v>70.6692</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>15412.66666666667</v>
+        <v>-2954.425493790577</v>
       </c>
       <c r="H22" t="n">
-        <v>15560.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="C23" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="D23" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="E23" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="F23" t="n">
-        <v>54.0791</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>15411.33333333333</v>
+        <v>-2954.425493790577</v>
       </c>
       <c r="H23" t="n">
-        <v>15554.5</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15410</v>
+        <v>15560</v>
       </c>
       <c r="C24" t="n">
-        <v>15410</v>
+        <v>15560</v>
       </c>
       <c r="D24" t="n">
-        <v>15410</v>
+        <v>15570</v>
       </c>
       <c r="E24" t="n">
-        <v>15410</v>
+        <v>15560</v>
       </c>
       <c r="F24" t="n">
-        <v>194.4763789746918</v>
+        <v>400</v>
       </c>
       <c r="G24" t="n">
-        <v>15408.66666666667</v>
+        <v>-3354.425493790577</v>
       </c>
       <c r="H24" t="n">
-        <v>15549.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="C25" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="D25" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="E25" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="F25" t="n">
-        <v>166.3014</v>
+        <v>201.0717</v>
       </c>
       <c r="G25" t="n">
-        <v>15404.66666666667</v>
+        <v>-3354.425493790577</v>
       </c>
       <c r="H25" t="n">
-        <v>15544.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="C26" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="D26" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="E26" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="F26" t="n">
-        <v>7.5231</v>
+        <v>62.7251</v>
       </c>
       <c r="G26" t="n">
-        <v>15402</v>
+        <v>-3417.150593790577</v>
       </c>
       <c r="H26" t="n">
-        <v>15540.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="C27" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="D27" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="E27" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="F27" t="n">
-        <v>15.76052102530824</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>15402</v>
+        <v>-3517.150593790577</v>
       </c>
       <c r="H27" t="n">
-        <v>15535.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15480</v>
+        <v>15460</v>
       </c>
       <c r="C28" t="n">
-        <v>15480</v>
+        <v>15450</v>
       </c>
       <c r="D28" t="n">
-        <v>15480</v>
+        <v>15460</v>
       </c>
       <c r="E28" t="n">
-        <v>15480</v>
+        <v>15450</v>
       </c>
       <c r="F28" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>15406.66666666667</v>
+        <v>-3617.150593790577</v>
       </c>
       <c r="H28" t="n">
-        <v>15532.5</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="C29" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="D29" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="E29" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="F29" t="n">
-        <v>0.034</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>15413.33333333333</v>
+        <v>-3648.150593790577</v>
       </c>
       <c r="H29" t="n">
-        <v>15529.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="C30" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="D30" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="E30" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="F30" t="n">
-        <v>12.5876</v>
+        <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>15419.33333333333</v>
+        <v>-3607.150593790577</v>
       </c>
       <c r="H30" t="n">
-        <v>15526.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="C31" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="D31" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="E31" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0569</v>
+        <v>0.6202</v>
       </c>
       <c r="G31" t="n">
-        <v>15426.66666666667</v>
+        <v>-3607.150593790577</v>
       </c>
       <c r="H31" t="n">
-        <v>15524</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15510</v>
+        <v>15460</v>
       </c>
       <c r="C32" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="D32" t="n">
-        <v>15510</v>
+        <v>15460</v>
       </c>
       <c r="E32" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0593</v>
+        <v>141.0986</v>
       </c>
       <c r="G32" t="n">
-        <v>15434</v>
+        <v>-3748.249193790577</v>
       </c>
       <c r="H32" t="n">
-        <v>15521.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="C33" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="D33" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="E33" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="F33" t="n">
-        <v>1.146</v>
+        <v>12.487</v>
       </c>
       <c r="G33" t="n">
-        <v>15441.33333333333</v>
+        <v>-3735.762193790577</v>
       </c>
       <c r="H33" t="n">
-        <v>15519.5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="C34" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="D34" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="E34" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4486</v>
+        <v>148.975</v>
       </c>
       <c r="G34" t="n">
-        <v>15448.66666666667</v>
+        <v>-3735.762193790577</v>
       </c>
       <c r="H34" t="n">
-        <v>15517.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="C35" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="D35" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="E35" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="F35" t="n">
-        <v>1.9613</v>
+        <v>61.602</v>
       </c>
       <c r="G35" t="n">
-        <v>15451.33333333333</v>
+        <v>-3797.364193790577</v>
       </c>
       <c r="H35" t="n">
-        <v>15515</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="C36" t="n">
-        <v>15490</v>
+        <v>15440</v>
       </c>
       <c r="D36" t="n">
-        <v>15490</v>
+        <v>15440</v>
       </c>
       <c r="E36" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="F36" t="n">
-        <v>47.9192</v>
+        <v>50.2863</v>
       </c>
       <c r="G36" t="n">
-        <v>15457.33333333333</v>
+        <v>-3747.077893790577</v>
       </c>
       <c r="H36" t="n">
-        <v>15512.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15420</v>
+        <v>15410</v>
       </c>
       <c r="C37" t="n">
         <v>15410</v>
       </c>
       <c r="D37" t="n">
-        <v>15420</v>
+        <v>15410</v>
       </c>
       <c r="E37" t="n">
         <v>15410</v>
       </c>
       <c r="F37" t="n">
-        <v>63.4475</v>
+        <v>29.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>15458.66666666667</v>
+        <v>-3777.077793790576</v>
       </c>
       <c r="H37" t="n">
-        <v>15508</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="C38" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="D38" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="E38" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="F38" t="n">
-        <v>40.8072</v>
+        <v>61.81</v>
       </c>
       <c r="G38" t="n">
-        <v>15460</v>
+        <v>-3715.267793790576</v>
       </c>
       <c r="H38" t="n">
-        <v>15503.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="C39" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="D39" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="E39" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="F39" t="n">
-        <v>33.8265</v>
+        <v>55.941</v>
       </c>
       <c r="G39" t="n">
-        <v>15460</v>
+        <v>-3715.267793790576</v>
       </c>
       <c r="H39" t="n">
-        <v>15500.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="C40" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="D40" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="E40" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3524</v>
+        <v>2.6504</v>
       </c>
       <c r="G40" t="n">
-        <v>15464.66666666667</v>
+        <v>-3715.267793790576</v>
       </c>
       <c r="H40" t="n">
-        <v>15498.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15460</v>
+        <v>15410</v>
       </c>
       <c r="C41" t="n">
         <v>15410</v>
       </c>
       <c r="D41" t="n">
-        <v>15470</v>
+        <v>15410</v>
       </c>
       <c r="E41" t="n">
         <v>15410</v>
       </c>
       <c r="F41" t="n">
-        <v>5.9109</v>
+        <v>113.6866</v>
       </c>
       <c r="G41" t="n">
-        <v>15464.66666666667</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H41" t="n">
-        <v>15495.5</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,24 +1845,21 @@
         <v>15410</v>
       </c>
       <c r="F42" t="n">
-        <v>3.41</v>
+        <v>9.8687</v>
       </c>
       <c r="G42" t="n">
-        <v>15464.66666666667</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H42" t="n">
-        <v>15492.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,24 +1880,21 @@
         <v>15410</v>
       </c>
       <c r="F43" t="n">
-        <v>7.1185</v>
+        <v>264.2772</v>
       </c>
       <c r="G43" t="n">
-        <v>15460</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H43" t="n">
-        <v>15488</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2037,33 +1906,30 @@
         <v>15410</v>
       </c>
       <c r="C44" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="D44" t="n">
         <v>15410</v>
       </c>
       <c r="E44" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="F44" t="n">
-        <v>76.1361</v>
+        <v>11.4135</v>
       </c>
       <c r="G44" t="n">
-        <v>15452.66666666667</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H44" t="n">
-        <v>15482.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="C45" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="D45" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="E45" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="F45" t="n">
-        <v>12.2498</v>
+        <v>149.93</v>
       </c>
       <c r="G45" t="n">
-        <v>15453.33333333333</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H45" t="n">
-        <v>15478.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="C46" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="D46" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="E46" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="F46" t="n">
-        <v>3.8002</v>
+        <v>87.33759999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>15453.33333333333</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H46" t="n">
-        <v>15475.5</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="C47" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="D47" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="E47" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="F47" t="n">
-        <v>4.7108</v>
+        <v>2.8314</v>
       </c>
       <c r="G47" t="n">
-        <v>15454</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H47" t="n">
-        <v>15471.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="C48" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="D48" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="E48" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="F48" t="n">
-        <v>6.8305</v>
+        <v>7.8288</v>
       </c>
       <c r="G48" t="n">
-        <v>15454.66666666667</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H48" t="n">
-        <v>15468.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="C49" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="D49" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="E49" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="F49" t="n">
-        <v>0.033</v>
+        <v>5.827</v>
       </c>
       <c r="G49" t="n">
-        <v>15458.66666666667</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H49" t="n">
-        <v>15463.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="C50" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="D50" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="E50" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="F50" t="n">
-        <v>3.877</v>
+        <v>11.11</v>
       </c>
       <c r="G50" t="n">
-        <v>15464</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H50" t="n">
-        <v>15460.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15540</v>
+        <v>15400</v>
       </c>
       <c r="C51" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="D51" t="n">
-        <v>15580</v>
+        <v>15400</v>
       </c>
       <c r="E51" t="n">
-        <v>15540</v>
+        <v>15390</v>
       </c>
       <c r="F51" t="n">
-        <v>137.009</v>
+        <v>70.6692</v>
       </c>
       <c r="G51" t="n">
-        <v>15470</v>
+        <v>-4049.553593790576</v>
       </c>
       <c r="H51" t="n">
-        <v>15461.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="C52" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="D52" t="n">
-        <v>15600</v>
+        <v>15390</v>
       </c>
       <c r="E52" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="F52" t="n">
-        <v>256.7351</v>
+        <v>54.0791</v>
       </c>
       <c r="G52" t="n">
-        <v>15481.33333333333</v>
+        <v>-4049.553593790576</v>
       </c>
       <c r="H52" t="n">
-        <v>15460.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="C53" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="D53" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="E53" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>194.4763789746918</v>
       </c>
       <c r="G53" t="n">
-        <v>15488.66666666667</v>
+        <v>-3855.077214815884</v>
       </c>
       <c r="H53" t="n">
-        <v>15458</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15570</v>
+        <v>15390</v>
       </c>
       <c r="C54" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="D54" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="E54" t="n">
-        <v>15570</v>
+        <v>15390</v>
       </c>
       <c r="F54" t="n">
-        <v>0.066</v>
+        <v>166.3014</v>
       </c>
       <c r="G54" t="n">
-        <v>15500</v>
+        <v>-4021.378614815884</v>
       </c>
       <c r="H54" t="n">
-        <v>15456.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15530</v>
+        <v>15410</v>
       </c>
       <c r="C55" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="D55" t="n">
-        <v>15530</v>
+        <v>15410</v>
       </c>
       <c r="E55" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="F55" t="n">
-        <v>25.408</v>
+        <v>7.5231</v>
       </c>
       <c r="G55" t="n">
-        <v>15504</v>
+        <v>-4013.855514815884</v>
       </c>
       <c r="H55" t="n">
-        <v>15456.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="C56" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="D56" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="E56" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="F56" t="n">
-        <v>0.033</v>
+        <v>15.76052102530824</v>
       </c>
       <c r="G56" t="n">
-        <v>15513.33333333333</v>
+        <v>-4013.855514815884</v>
       </c>
       <c r="H56" t="n">
-        <v>15456</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15530</v>
+        <v>15480</v>
       </c>
       <c r="C57" t="n">
-        <v>15520</v>
+        <v>15480</v>
       </c>
       <c r="D57" t="n">
-        <v>15530</v>
+        <v>15480</v>
       </c>
       <c r="E57" t="n">
-        <v>15520</v>
+        <v>15480</v>
       </c>
       <c r="F57" t="n">
-        <v>3.8129</v>
+        <v>49</v>
       </c>
       <c r="G57" t="n">
-        <v>15520.66666666667</v>
+        <v>-3964.855514815884</v>
       </c>
       <c r="H57" t="n">
-        <v>15456.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15530</v>
+        <v>15510</v>
       </c>
       <c r="C58" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="D58" t="n">
-        <v>15530</v>
+        <v>15510</v>
       </c>
       <c r="E58" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="F58" t="n">
-        <v>7.3262</v>
+        <v>0.034</v>
       </c>
       <c r="G58" t="n">
-        <v>15528</v>
+        <v>-3964.821514815884</v>
       </c>
       <c r="H58" t="n">
-        <v>15457.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="C59" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="D59" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="E59" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="F59" t="n">
-        <v>0.066</v>
+        <v>12.5876</v>
       </c>
       <c r="G59" t="n">
-        <v>15536.66666666667</v>
+        <v>-3977.409114815884</v>
       </c>
       <c r="H59" t="n">
-        <v>15458.5</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="C60" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="D60" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="E60" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>2.0569</v>
       </c>
       <c r="G60" t="n">
-        <v>15535.33333333333</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H60" t="n">
-        <v>15459.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="C61" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="D61" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="E61" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="F61" t="n">
-        <v>45.2374</v>
+        <v>1.0593</v>
       </c>
       <c r="G61" t="n">
-        <v>15534</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H61" t="n">
-        <v>15460.5</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="C62" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="D62" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="E62" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="F62" t="n">
-        <v>26.806</v>
+        <v>1.146</v>
       </c>
       <c r="G62" t="n">
-        <v>15531.33333333333</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H62" t="n">
-        <v>15461</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="C63" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="D63" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="E63" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="F63" t="n">
-        <v>58.4074</v>
+        <v>0.4486</v>
       </c>
       <c r="G63" t="n">
-        <v>15528.66666666667</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H63" t="n">
-        <v>15462.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="C64" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="D64" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="E64" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="F64" t="n">
-        <v>1.5726</v>
+        <v>1.9613</v>
       </c>
       <c r="G64" t="n">
-        <v>15519.33333333333</v>
+        <v>-3977.313514815884</v>
       </c>
       <c r="H64" t="n">
-        <v>15461.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="C65" t="n">
         <v>15490</v>
@@ -2841,31 +2647,24 @@
         <v>15490</v>
       </c>
       <c r="E65" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1538</v>
+        <v>47.9192</v>
       </c>
       <c r="G65" t="n">
-        <v>15517.33333333333</v>
+        <v>-3929.394314815884</v>
       </c>
       <c r="H65" t="n">
-        <v>15462.5</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L65" t="n">
-        <v>15430</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,2222 +2673,3046 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>15420</v>
+      </c>
+      <c r="C66" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D66" t="n">
+        <v>15420</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F66" t="n">
+        <v>63.4475</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-3992.841814815884</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D67" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E67" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F67" t="n">
+        <v>40.8072</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-3992.841814815884</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C68" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D68" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F68" t="n">
+        <v>33.8265</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-3992.841814815884</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>15460</v>
+      </c>
+      <c r="C69" t="n">
+        <v>15460</v>
+      </c>
+      <c r="D69" t="n">
+        <v>15460</v>
+      </c>
+      <c r="E69" t="n">
+        <v>15460</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-3992.489414815884</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>15460</v>
+      </c>
+      <c r="C70" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D70" t="n">
+        <v>15470</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.9109</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-3998.400314815884</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E71" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-3998.400314815884</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7.1185</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-3998.400314815884</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15400</v>
+      </c>
+      <c r="D73" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E73" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F73" t="n">
+        <v>76.1361</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-4074.536414815884</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>15510</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15510</v>
+      </c>
+      <c r="D74" t="n">
+        <v>15510</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15510</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12.2498</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-4062.286614815884</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>15510</v>
+      </c>
+      <c r="C75" t="n">
+        <v>15510</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15510</v>
+      </c>
+      <c r="E75" t="n">
+        <v>15510</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.8002</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-4062.286614815884</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>15520</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D76" t="n">
+        <v>15520</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.7108</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-4057.575814815884</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15520</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D77" t="n">
+        <v>15520</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6.8305</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-4057.575814815884</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>15570</v>
+      </c>
+      <c r="C78" t="n">
+        <v>15570</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15570</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15570</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-4057.542814815884</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>15520</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15520</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.877</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-4061.419814815884</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>15540</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15580</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15580</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15540</v>
+      </c>
+      <c r="F80" t="n">
+        <v>137.009</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-3924.410814815884</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>15580</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15580</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15600</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15580</v>
+      </c>
+      <c r="F81" t="n">
+        <v>256.7351</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-3924.410814815884</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>15520</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-3926.410814815884</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>15570</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15580</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15580</v>
+      </c>
+      <c r="E83" t="n">
+        <v>15570</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-3926.344814815885</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F84" t="n">
+        <v>25.408</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3951.752814815884</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>15550</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15550</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15550</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15550</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3951.719814815885</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.8129</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3955.532714815884</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7.3262</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3955.532714815884</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15530</v>
+      </c>
+      <c r="D88" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15530</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3955.466714815885</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15490</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15490</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15490</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3957.466714815885</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15490</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15490</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15490</v>
+      </c>
+      <c r="F90" t="n">
+        <v>45.2374</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-3957.466714815885</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>15480</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15480</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15480</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15480</v>
+      </c>
+      <c r="F91" t="n">
+        <v>26.806</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-3984.272714815885</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>15480</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15480</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15480</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15480</v>
+      </c>
+      <c r="F92" t="n">
+        <v>58.4074</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-3984.272714815885</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E93" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.5726</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3985.845314815885</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15490</v>
+      </c>
+      <c r="D94" t="n">
+        <v>15490</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15490</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-3985.691514815885</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>15440</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C95" t="n">
         <v>15440</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D95" t="n">
         <v>15440</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E95" t="n">
         <v>15440</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F95" t="n">
         <v>1.9434</v>
       </c>
-      <c r="G66" t="n">
-        <v>15508</v>
-      </c>
-      <c r="H66" t="n">
-        <v>15462.83333333333</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>15490</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="G95" t="n">
+        <v>-3987.634914815885</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
         <v>15430</v>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="C96" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D96" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E96" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F96" t="n">
+        <v>46.7589</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D97" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.295</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C98" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F98" t="n">
+        <v>75.90049999999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>15430</v>
+      </c>
+      <c r="K98" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C99" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F99" t="n">
+        <v>36.2742</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
         <v>15430</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C100" t="n">
         <v>15430</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D100" t="n">
         <v>15430</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E100" t="n">
         <v>15430</v>
       </c>
-      <c r="F67" t="n">
-        <v>46.7589</v>
-      </c>
-      <c r="G67" t="n">
-        <v>15498</v>
-      </c>
-      <c r="H67" t="n">
-        <v>15462.66666666667</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>15440</v>
-      </c>
-      <c r="L67" t="n">
+      <c r="F100" t="n">
+        <v>44.9252</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>15430</v>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="K100" t="n">
+        <v>15430</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
         <v>15430</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C101" t="n">
         <v>15430</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D101" t="n">
         <v>15430</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E101" t="n">
         <v>15430</v>
       </c>
-      <c r="F68" t="n">
-        <v>2.295</v>
-      </c>
-      <c r="G68" t="n">
-        <v>15492</v>
-      </c>
-      <c r="H68" t="n">
-        <v>15463</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
+      <c r="F101" t="n">
+        <v>48.158</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>15430</v>
       </c>
-      <c r="L68" t="n">
+      <c r="K101" t="n">
         <v>15430</v>
       </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C102" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D102" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F102" t="n">
+        <v>85.8158</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-4120.209614815884</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>15430</v>
       </c>
-      <c r="C69" t="n">
+      <c r="K102" t="n">
         <v>15430</v>
       </c>
-      <c r="D69" t="n">
-        <v>15430</v>
-      </c>
-      <c r="E69" t="n">
-        <v>15430</v>
-      </c>
-      <c r="F69" t="n">
-        <v>75.90049999999999</v>
-      </c>
-      <c r="G69" t="n">
-        <v>15482</v>
-      </c>
-      <c r="H69" t="n">
-        <v>15462.66666666667</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L69" t="n">
-        <v>15430</v>
-      </c>
-      <c r="M69" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>15430</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C103" t="n">
         <v>15430</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D103" t="n">
         <v>15430</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E103" t="n">
         <v>15430</v>
       </c>
-      <c r="F70" t="n">
-        <v>36.2742</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15476</v>
-      </c>
-      <c r="H70" t="n">
-        <v>15462.33333333333</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
+      <c r="F103" t="n">
+        <v>7.367</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-4112.842614815884</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>15410</v>
+      </c>
+      <c r="K103" t="n">
         <v>15430</v>
       </c>
-      <c r="L70" t="n">
-        <v>15430</v>
-      </c>
-      <c r="M70" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
         <v>15430</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C104" t="n">
         <v>15430</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D104" t="n">
         <v>15430</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E104" t="n">
         <v>15430</v>
       </c>
-      <c r="F71" t="n">
-        <v>44.9252</v>
-      </c>
-      <c r="G71" t="n">
-        <v>15468</v>
-      </c>
-      <c r="H71" t="n">
-        <v>15462</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
+      <c r="F104" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-4112.842614815884</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
         <v>15430</v>
       </c>
-      <c r="L71" t="n">
+      <c r="K104" t="n">
         <v>15430</v>
       </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>15400</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15400</v>
+      </c>
+      <c r="D105" t="n">
+        <v>15400</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F105" t="n">
+        <v>59.4033</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-4172.245914815884</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>15430</v>
       </c>
-      <c r="C72" t="n">
+      <c r="K105" t="n">
         <v>15430</v>
       </c>
-      <c r="D72" t="n">
-        <v>15430</v>
-      </c>
-      <c r="E72" t="n">
-        <v>15430</v>
-      </c>
-      <c r="F72" t="n">
-        <v>48.158</v>
-      </c>
-      <c r="G72" t="n">
-        <v>15462</v>
-      </c>
-      <c r="H72" t="n">
-        <v>15462.33333333333</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L72" t="n">
-        <v>15430</v>
-      </c>
-      <c r="M72" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>15410</v>
-      </c>
-      <c r="C73" t="n">
-        <v>15410</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15410</v>
-      </c>
-      <c r="E73" t="n">
-        <v>15410</v>
-      </c>
-      <c r="F73" t="n">
-        <v>85.8158</v>
-      </c>
-      <c r="G73" t="n">
-        <v>15454.66666666667</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15462.33333333333</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>15390</v>
+      </c>
+      <c r="C106" t="n">
+        <v>15390</v>
+      </c>
+      <c r="D106" t="n">
+        <v>15390</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15390</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.459</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-4174.704914815884</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>15400</v>
+      </c>
+      <c r="K106" t="n">
         <v>15430</v>
       </c>
-      <c r="L73" t="n">
-        <v>15430</v>
-      </c>
-      <c r="M73" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>15430</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15430</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15430</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15430</v>
-      </c>
-      <c r="F74" t="n">
-        <v>7.367</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15448</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15462.66666666667</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15410</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15410</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>15430</v>
-      </c>
-      <c r="C75" t="n">
-        <v>15430</v>
-      </c>
-      <c r="D75" t="n">
-        <v>15430</v>
-      </c>
-      <c r="E75" t="n">
-        <v>15430</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2.654</v>
-      </c>
-      <c r="G75" t="n">
-        <v>15444</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15463</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L75" t="n">
-        <v>15410</v>
-      </c>
-      <c r="M75" t="inlineStr">
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>15390</v>
+      </c>
+      <c r="C107" t="n">
+        <v>15390</v>
+      </c>
+      <c r="D107" t="n">
+        <v>15390</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15390</v>
+      </c>
+      <c r="F107" t="n">
+        <v>15.236</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-4174.704914815884</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>15390</v>
+      </c>
+      <c r="K107" t="n">
+        <v>15390</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>15380</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15380</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15380</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15380</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.1299</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-4180.834814815884</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>15390</v>
+      </c>
+      <c r="K108" t="n">
+        <v>15390</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>15400</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15400</v>
-      </c>
-      <c r="D76" t="n">
-        <v>15400</v>
-      </c>
-      <c r="E76" t="n">
-        <v>15400</v>
-      </c>
-      <c r="F76" t="n">
-        <v>59.4033</v>
-      </c>
-      <c r="G76" t="n">
-        <v>15438</v>
-      </c>
-      <c r="H76" t="n">
-        <v>15463</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L76" t="n">
-        <v>15410</v>
-      </c>
-      <c r="M76" t="inlineStr">
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>15380</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15380</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15380</v>
+      </c>
+      <c r="E109" t="n">
+        <v>15380</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14.544</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-4180.834814815884</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>15380</v>
+      </c>
+      <c r="K109" t="n">
+        <v>15390</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>15390</v>
-      </c>
-      <c r="C77" t="n">
-        <v>15390</v>
-      </c>
-      <c r="D77" t="n">
-        <v>15390</v>
-      </c>
-      <c r="E77" t="n">
-        <v>15390</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2.459</v>
-      </c>
-      <c r="G77" t="n">
-        <v>15432</v>
-      </c>
-      <c r="H77" t="n">
-        <v>15462.83333333333</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>15400</v>
-      </c>
-      <c r="L77" t="n">
-        <v>15400</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>15390</v>
-      </c>
-      <c r="C78" t="n">
-        <v>15390</v>
-      </c>
-      <c r="D78" t="n">
-        <v>15390</v>
-      </c>
-      <c r="E78" t="n">
-        <v>15390</v>
-      </c>
-      <c r="F78" t="n">
-        <v>15.236</v>
-      </c>
-      <c r="G78" t="n">
-        <v>15426</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15462.66666666667</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>15390</v>
-      </c>
-      <c r="L78" t="n">
-        <v>15400</v>
-      </c>
-      <c r="M78" t="inlineStr">
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>15370</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15370</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15370</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15370</v>
+      </c>
+      <c r="F110" t="n">
+        <v>59.7861</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-4240.620914815884</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>15380</v>
+      </c>
+      <c r="K110" t="n">
+        <v>15380</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>15370</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15370</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15370</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15370</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5.8365</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-4240.620914815884</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>15370</v>
+      </c>
+      <c r="K111" t="n">
+        <v>15380</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>15360</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15350</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15360</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15350</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.3878</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4243.008714815885</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>15370</v>
+      </c>
+      <c r="K112" t="n">
         <v>15380</v>
       </c>
-      <c r="C79" t="n">
-        <v>15380</v>
-      </c>
-      <c r="D79" t="n">
-        <v>15380</v>
-      </c>
-      <c r="E79" t="n">
-        <v>15380</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6.1299</v>
-      </c>
-      <c r="G79" t="n">
-        <v>15422.66666666667</v>
-      </c>
-      <c r="H79" t="n">
-        <v>15462.33333333333</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>15390</v>
-      </c>
-      <c r="L79" t="n">
-        <v>15400</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>15380</v>
-      </c>
-      <c r="C80" t="n">
-        <v>15380</v>
-      </c>
-      <c r="D80" t="n">
-        <v>15380</v>
-      </c>
-      <c r="E80" t="n">
-        <v>15380</v>
-      </c>
-      <c r="F80" t="n">
-        <v>14.544</v>
-      </c>
-      <c r="G80" t="n">
-        <v>15415.33333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>15462</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L80" t="n">
-        <v>15380</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>15370</v>
-      </c>
-      <c r="C81" t="n">
-        <v>15370</v>
-      </c>
-      <c r="D81" t="n">
-        <v>15370</v>
-      </c>
-      <c r="E81" t="n">
-        <v>15370</v>
-      </c>
-      <c r="F81" t="n">
-        <v>59.7861</v>
-      </c>
-      <c r="G81" t="n">
-        <v>15410.66666666667</v>
-      </c>
-      <c r="H81" t="n">
-        <v>15461.5</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L81" t="n">
-        <v>15380</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>15370</v>
-      </c>
-      <c r="C82" t="n">
-        <v>15370</v>
-      </c>
-      <c r="D82" t="n">
-        <v>15370</v>
-      </c>
-      <c r="E82" t="n">
-        <v>15370</v>
-      </c>
-      <c r="F82" t="n">
-        <v>5.8365</v>
-      </c>
-      <c r="G82" t="n">
-        <v>15406.66666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>15461.16666666667</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>15370</v>
-      </c>
-      <c r="L82" t="n">
-        <v>15380</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>15360</v>
-      </c>
-      <c r="C83" t="n">
-        <v>15350</v>
-      </c>
-      <c r="D83" t="n">
-        <v>15360</v>
-      </c>
-      <c r="E83" t="n">
-        <v>15350</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2.3878</v>
-      </c>
-      <c r="G83" t="n">
-        <v>15401.33333333333</v>
-      </c>
-      <c r="H83" t="n">
-        <v>15460.5</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>15370</v>
-      </c>
-      <c r="L83" t="n">
-        <v>15380</v>
-      </c>
-      <c r="M83" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>15360</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C113" t="n">
         <v>15350</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D113" t="n">
         <v>15360</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E113" t="n">
         <v>15350</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F113" t="n">
         <v>25.5742</v>
       </c>
-      <c r="G84" t="n">
-        <v>15396</v>
-      </c>
-      <c r="H84" t="n">
-        <v>15459.5</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
+      <c r="G113" t="n">
+        <v>-4243.008714815885</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
         <v>15350</v>
       </c>
-      <c r="L84" t="n">
+      <c r="K113" t="n">
         <v>15380</v>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>15340</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C114" t="n">
         <v>15340</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D114" t="n">
         <v>15340</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E114" t="n">
         <v>15340</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F114" t="n">
         <v>15.1039</v>
       </c>
-      <c r="G85" t="n">
-        <v>15390</v>
-      </c>
-      <c r="H85" t="n">
-        <v>15458.66666666667</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
+      <c r="G114" t="n">
+        <v>-4258.112614815885</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
         <v>15350</v>
       </c>
-      <c r="L85" t="n">
+      <c r="K114" t="n">
         <v>15380</v>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>15330</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C115" t="n">
         <v>15300</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D115" t="n">
         <v>15330</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E115" t="n">
         <v>15300</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F115" t="n">
         <v>45</v>
       </c>
-      <c r="G86" t="n">
-        <v>15381.33333333333</v>
-      </c>
-      <c r="H86" t="n">
-        <v>15456.83333333333</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
+      <c r="G115" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
         <v>15340</v>
       </c>
-      <c r="L86" t="n">
+      <c r="K115" t="n">
         <v>15380</v>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
         <v>15300</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C116" t="n">
         <v>15300</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D116" t="n">
         <v>15300</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E116" t="n">
         <v>15300</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F116" t="n">
         <v>8.387</v>
       </c>
-      <c r="G87" t="n">
-        <v>15372.66666666667</v>
-      </c>
-      <c r="H87" t="n">
-        <v>15455</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
+      <c r="G116" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>15300</v>
       </c>
-      <c r="L87" t="n">
+      <c r="K116" t="n">
         <v>15380</v>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>15300</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C117" t="n">
         <v>15300</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D117" t="n">
         <v>15300</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E117" t="n">
         <v>15300</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F117" t="n">
         <v>12.8</v>
       </c>
-      <c r="G88" t="n">
-        <v>15365.33333333333</v>
-      </c>
-      <c r="H88" t="n">
-        <v>15452</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
+      <c r="G117" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
         <v>15300</v>
       </c>
-      <c r="L88" t="n">
+      <c r="K117" t="n">
         <v>15380</v>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>15310</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C118" t="n">
         <v>15320</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D118" t="n">
         <v>15320</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E118" t="n">
         <v>15310</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F118" t="n">
         <v>50.7396</v>
       </c>
-      <c r="G89" t="n">
-        <v>15358</v>
-      </c>
-      <c r="H89" t="n">
-        <v>15448.83333333333</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
+      <c r="G118" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
         <v>15300</v>
       </c>
-      <c r="L89" t="n">
+      <c r="K118" t="n">
         <v>15380</v>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
         <v>15320</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C119" t="n">
         <v>15320</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D119" t="n">
         <v>15320</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E119" t="n">
         <v>15320</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F119" t="n">
         <v>13.497</v>
       </c>
-      <c r="G90" t="n">
-        <v>15350.66666666667</v>
-      </c>
-      <c r="H90" t="n">
-        <v>15445.83333333333</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
+      <c r="G119" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
         <v>15320</v>
       </c>
-      <c r="L90" t="n">
+      <c r="K119" t="n">
         <v>15380</v>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>15330</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C120" t="n">
         <v>15320</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D120" t="n">
         <v>15330</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E120" t="n">
         <v>15320</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F120" t="n">
         <v>39.9327</v>
       </c>
-      <c r="G91" t="n">
-        <v>15345.33333333333</v>
-      </c>
-      <c r="H91" t="n">
-        <v>15442.66666666667</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
+      <c r="G120" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
         <v>15320</v>
       </c>
-      <c r="L91" t="n">
+      <c r="K120" t="n">
         <v>15380</v>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>15320</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C121" t="n">
         <v>15320</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D121" t="n">
         <v>15320</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E121" t="n">
         <v>15320</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F121" t="n">
         <v>0.4599</v>
       </c>
-      <c r="G92" t="n">
-        <v>15340.66666666667</v>
-      </c>
-      <c r="H92" t="n">
-        <v>15439.5</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
+      <c r="G121" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
         <v>15320</v>
       </c>
-      <c r="L92" t="n">
+      <c r="K121" t="n">
         <v>15380</v>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>15320</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C122" t="n">
         <v>15310</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D122" t="n">
         <v>15320</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E122" t="n">
         <v>15310</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F122" t="n">
         <v>12.2219</v>
       </c>
-      <c r="G93" t="n">
-        <v>15335.33333333333</v>
-      </c>
-      <c r="H93" t="n">
-        <v>15436.16666666667</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
+      <c r="G122" t="n">
+        <v>-4264.594914815884</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
         <v>15320</v>
       </c>
-      <c r="L93" t="n">
+      <c r="K122" t="n">
         <v>15380</v>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>15280</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C123" t="n">
         <v>15280</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D123" t="n">
         <v>15280</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E123" t="n">
         <v>15280</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F123" t="n">
         <v>55.7827</v>
       </c>
-      <c r="G94" t="n">
-        <v>15328.66666666667</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15432.33333333333</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
+      <c r="G123" t="n">
+        <v>-4320.377614815884</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
         <v>15310</v>
       </c>
-      <c r="L94" t="n">
+      <c r="K123" t="n">
         <v>15380</v>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>15280</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C124" t="n">
         <v>15270</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D124" t="n">
         <v>15280</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E124" t="n">
         <v>15270</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F124" t="n">
         <v>30.801</v>
       </c>
-      <c r="G95" t="n">
-        <v>15321.33333333333</v>
-      </c>
-      <c r="H95" t="n">
-        <v>15429.5</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
+      <c r="G124" t="n">
+        <v>-4351.178614815884</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
         <v>15280</v>
       </c>
-      <c r="L95" t="n">
+      <c r="K124" t="n">
         <v>15380</v>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
         <v>15260</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C125" t="n">
         <v>15260</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D125" t="n">
         <v>15260</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E125" t="n">
         <v>15260</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F125" t="n">
         <v>12.5332</v>
       </c>
-      <c r="G96" t="n">
-        <v>15314</v>
-      </c>
-      <c r="H96" t="n">
-        <v>15425.66666666667</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
+      <c r="G125" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
         <v>15270</v>
       </c>
-      <c r="L96" t="n">
+      <c r="K125" t="n">
         <v>15380</v>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>15260</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C126" t="n">
         <v>15260</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D126" t="n">
         <v>15260</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E126" t="n">
         <v>15260</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F126" t="n">
         <v>11.6572</v>
       </c>
-      <c r="G97" t="n">
-        <v>15306.66666666667</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15423.16666666667</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
+      <c r="G126" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>15260</v>
       </c>
-      <c r="L97" t="n">
+      <c r="K126" t="n">
         <v>15380</v>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>15260</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C127" t="n">
         <v>15200</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D127" t="n">
         <v>15260</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E127" t="n">
         <v>15200</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F127" t="n">
         <v>209.9491</v>
       </c>
-      <c r="G98" t="n">
-        <v>15296.66666666667</v>
-      </c>
-      <c r="H98" t="n">
-        <v>15419.66666666667</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
+      <c r="G127" t="n">
+        <v>-4573.660914815884</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K127" t="n">
         <v>15380</v>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>15210</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C128" t="n">
         <v>15200</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D128" t="n">
         <v>15210</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E128" t="n">
         <v>15200</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F128" t="n">
         <v>102.5351</v>
       </c>
-      <c r="G99" t="n">
-        <v>15286.66666666667</v>
-      </c>
-      <c r="H99" t="n">
-        <v>15416.16666666667</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
+      <c r="G128" t="n">
+        <v>-4573.660914815884</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>15200</v>
+      </c>
+      <c r="K128" t="n">
         <v>15380</v>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>15200</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C129" t="n">
         <v>15150</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D129" t="n">
         <v>15200</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E129" t="n">
         <v>15150</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F129" t="n">
         <v>19.9032</v>
       </c>
-      <c r="G100" t="n">
-        <v>15274</v>
-      </c>
-      <c r="H100" t="n">
-        <v>15411</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
+      <c r="G129" t="n">
+        <v>-4593.564114815884</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
         <v>15380</v>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>15210</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C130" t="n">
         <v>15210</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D130" t="n">
         <v>15210</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E130" t="n">
         <v>15210</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F130" t="n">
         <v>326.7</v>
       </c>
-      <c r="G101" t="n">
-        <v>15268</v>
-      </c>
-      <c r="H101" t="n">
-        <v>15407.66666666667</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
+      <c r="G130" t="n">
+        <v>-4266.864114815884</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
         <v>15150</v>
       </c>
-      <c r="L101" t="n">
+      <c r="K130" t="n">
         <v>15380</v>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>15160</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C131" t="n">
         <v>15160</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D131" t="n">
         <v>15160</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E131" t="n">
         <v>15160</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F131" t="n">
         <v>13.73</v>
       </c>
-      <c r="G102" t="n">
-        <v>15258.66666666667</v>
-      </c>
-      <c r="H102" t="n">
-        <v>15403.5</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
+      <c r="G131" t="n">
+        <v>-4280.594114815884</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
         <v>15380</v>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>15160</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C132" t="n">
         <v>15270</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D132" t="n">
         <v>15270</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E132" t="n">
         <v>15150</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F132" t="n">
         <v>68.9727</v>
       </c>
-      <c r="G103" t="n">
-        <v>15256.66666666667</v>
-      </c>
-      <c r="H103" t="n">
-        <v>15401.16666666667</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>15160</v>
-      </c>
-      <c r="L103" t="n">
+      <c r="G132" t="n">
+        <v>-4211.621414815883</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
         <v>15380</v>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>15250</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C133" t="n">
         <v>15250</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D133" t="n">
         <v>15250</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E133" t="n">
         <v>15250</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F133" t="n">
         <v>10.8988</v>
       </c>
-      <c r="G104" t="n">
-        <v>15252</v>
-      </c>
-      <c r="H104" t="n">
-        <v>15398.66666666667</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>15270</v>
-      </c>
-      <c r="L104" t="n">
+      <c r="G133" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
         <v>15380</v>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
         <v>15250</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C134" t="n">
         <v>15250</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D134" t="n">
         <v>15250</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E134" t="n">
         <v>15250</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F134" t="n">
         <v>1.3712</v>
       </c>
-      <c r="G105" t="n">
-        <v>15247.33333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>15394.33333333333</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
+      <c r="G134" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
         <v>15380</v>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
         <v>15250</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C135" t="n">
         <v>15250</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D135" t="n">
         <v>15250</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E135" t="n">
         <v>15250</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F135" t="n">
         <v>60</v>
       </c>
-      <c r="G106" t="n">
-        <v>15242.66666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>15390</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>15250</v>
-      </c>
-      <c r="L106" t="n">
+      <c r="G135" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
         <v>15380</v>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>15270</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C136" t="n">
         <v>15260</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D136" t="n">
         <v>15270</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E136" t="n">
         <v>15260</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F136" t="n">
         <v>10.0021</v>
       </c>
-      <c r="G107" t="n">
-        <v>15238.66666666667</v>
-      </c>
-      <c r="H107" t="n">
-        <v>15385.66666666667</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>15250</v>
-      </c>
-      <c r="L107" t="n">
+      <c r="G136" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
         <v>15380</v>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>15260</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C137" t="n">
         <v>15260</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D137" t="n">
         <v>15260</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E137" t="n">
         <v>15260</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F137" t="n">
         <v>17.0767</v>
       </c>
-      <c r="G108" t="n">
-        <v>15235.33333333333</v>
-      </c>
-      <c r="H108" t="n">
-        <v>15381.33333333333</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L108" t="n">
+      <c r="G137" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
         <v>15380</v>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
         <v>15260</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C138" t="n">
         <v>15260</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D138" t="n">
         <v>15260</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E138" t="n">
         <v>15260</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F138" t="n">
         <v>3.816</v>
       </c>
-      <c r="G109" t="n">
-        <v>15234</v>
-      </c>
-      <c r="H109" t="n">
-        <v>15376.16666666667</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L109" t="n">
+      <c r="G138" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
         <v>15380</v>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
         <v>15260</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C139" t="n">
         <v>15260</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D139" t="n">
         <v>15260</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E139" t="n">
         <v>15260</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F139" t="n">
         <v>3.815</v>
       </c>
-      <c r="G110" t="n">
-        <v>15233.33333333333</v>
-      </c>
-      <c r="H110" t="n">
-        <v>15371.83333333333</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L110" t="n">
+      <c r="G139" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
         <v>15380</v>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>15260</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C140" t="n">
         <v>15260</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D140" t="n">
         <v>15260</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E140" t="n">
         <v>15260</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F140" t="n">
         <v>3.1958</v>
       </c>
-      <c r="G111" t="n">
-        <v>15233.33333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>15366.5</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L111" t="n">
+      <c r="G140" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
         <v>15380</v>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>15260</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C141" t="n">
         <v>15260</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D141" t="n">
         <v>15260</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E141" t="n">
         <v>15260</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F141" t="n">
         <v>38.4619</v>
       </c>
-      <c r="G112" t="n">
-        <v>15233.33333333333</v>
-      </c>
-      <c r="H112" t="n">
-        <v>15361.16666666667</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L112" t="n">
+      <c r="G141" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
         <v>15380</v>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>15260</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C142" t="n">
         <v>15260</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D142" t="n">
         <v>15260</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E142" t="n">
         <v>15260</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F142" t="n">
         <v>16.4072</v>
       </c>
-      <c r="G113" t="n">
-        <v>15237.33333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>15356.83333333333</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L113" t="n">
+      <c r="G142" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
         <v>15380</v>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>15330</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C143" t="n">
         <v>15330</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D143" t="n">
         <v>15330</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E143" t="n">
         <v>15330</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F143" t="n">
         <v>2.0867</v>
       </c>
-      <c r="G114" t="n">
-        <v>15246</v>
-      </c>
-      <c r="H114" t="n">
-        <v>15352.66666666667</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>15260</v>
-      </c>
-      <c r="L114" t="n">
+      <c r="G143" t="n">
+        <v>-4210.431414815884</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
         <v>15380</v>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3826,6 +3927,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3867,6 +3969,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3910,6 +4013,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3949,6 +4053,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3992,6 +4097,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4035,6 +4141,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4074,6 +4181,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4117,6 +4225,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4160,6 +4269,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4199,6 +4309,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4242,6 +4353,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4285,6 +4397,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4324,6 +4437,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4367,6 +4481,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4410,6 +4525,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4453,6 +4569,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4496,6 +4613,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4539,6 +4657,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4582,6 +4701,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4625,6 +4745,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4668,6 +4789,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4711,6 +4833,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4754,6 +4877,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4797,6 +4921,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4840,6 +4965,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4883,6 +5009,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4926,6 +5053,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4969,6 +5097,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5012,6 +5141,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5055,6 +5185,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5098,6 +5229,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5139,6 +5271,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5182,6 +5315,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5223,6 +5357,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5264,6 +5399,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5305,6 +5441,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5346,6 +5483,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5387,6 +5525,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5428,6 +5567,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5469,6 +5609,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5510,6 +5651,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5551,6 +5693,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5592,6 +5735,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5633,6 +5777,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5674,6 +5819,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5715,6 +5861,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="C2" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="D2" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="E2" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>7.3636</v>
       </c>
       <c r="G2" t="n">
-        <v>-2100.217116047829</v>
+        <v>-1378.497216047829</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15620</v>
+        <v>15820</v>
       </c>
       <c r="C3" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="D3" t="n">
-        <v>15620</v>
+        <v>15820</v>
       </c>
       <c r="E3" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="F3" t="n">
-        <v>63.1918</v>
+        <v>3.674</v>
       </c>
       <c r="G3" t="n">
-        <v>-2100.217116047829</v>
+        <v>-1378.497216047829</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="C4" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="D4" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="E4" t="n">
-        <v>15600</v>
+        <v>15820</v>
       </c>
       <c r="F4" t="n">
-        <v>223.7228</v>
+        <v>6.8786</v>
       </c>
       <c r="G4" t="n">
-        <v>-2100.217116047829</v>
+        <v>-1378.497216047829</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15690</v>
+        <v>15820</v>
       </c>
       <c r="C5" t="n">
-        <v>15650</v>
+        <v>15820</v>
       </c>
       <c r="D5" t="n">
-        <v>15690</v>
+        <v>15820</v>
       </c>
       <c r="E5" t="n">
-        <v>15650</v>
+        <v>15820</v>
       </c>
       <c r="F5" t="n">
-        <v>182.9211</v>
+        <v>124.5479</v>
       </c>
       <c r="G5" t="n">
-        <v>-1917.296016047829</v>
+        <v>-1378.497216047829</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15670</v>
+        <v>15820</v>
       </c>
       <c r="C6" t="n">
-        <v>15670</v>
+        <v>15820</v>
       </c>
       <c r="D6" t="n">
-        <v>15670</v>
+        <v>15820</v>
       </c>
       <c r="E6" t="n">
-        <v>15660</v>
+        <v>15820</v>
       </c>
       <c r="F6" t="n">
-        <v>51.2324</v>
+        <v>17.7239</v>
       </c>
       <c r="G6" t="n">
-        <v>-1866.063616047829</v>
+        <v>-1378.497216047829</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15670</v>
+        <v>15840</v>
       </c>
       <c r="C7" t="n">
-        <v>15670</v>
+        <v>15840</v>
       </c>
       <c r="D7" t="n">
-        <v>15670</v>
+        <v>15840</v>
       </c>
       <c r="E7" t="n">
-        <v>15670</v>
+        <v>15840</v>
       </c>
       <c r="F7" t="n">
-        <v>9.569800000000001</v>
+        <v>29.7576</v>
       </c>
       <c r="G7" t="n">
-        <v>-1866.063616047829</v>
+        <v>-1348.739616047829</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15620</v>
+        <v>15830</v>
       </c>
       <c r="C8" t="n">
-        <v>15590</v>
+        <v>15830</v>
       </c>
       <c r="D8" t="n">
-        <v>15620</v>
+        <v>15830</v>
       </c>
       <c r="E8" t="n">
-        <v>15590</v>
+        <v>15830</v>
       </c>
       <c r="F8" t="n">
-        <v>138.2498</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>-2004.313416047829</v>
+        <v>-1351.739616047829</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15610</v>
+        <v>15840</v>
       </c>
       <c r="C9" t="n">
-        <v>15610</v>
+        <v>15840</v>
       </c>
       <c r="D9" t="n">
-        <v>15610</v>
+        <v>15840</v>
       </c>
       <c r="E9" t="n">
-        <v>15610</v>
+        <v>15840</v>
       </c>
       <c r="F9" t="n">
-        <v>11.3574</v>
+        <v>25.8982</v>
       </c>
       <c r="G9" t="n">
-        <v>-1992.956016047829</v>
+        <v>-1325.841416047829</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15570</v>
+        <v>15810</v>
       </c>
       <c r="C10" t="n">
-        <v>15570</v>
+        <v>15810</v>
       </c>
       <c r="D10" t="n">
-        <v>15570</v>
+        <v>15810</v>
       </c>
       <c r="E10" t="n">
-        <v>15570</v>
+        <v>15810</v>
       </c>
       <c r="F10" t="n">
-        <v>21.6624</v>
+        <v>4.0089</v>
       </c>
       <c r="G10" t="n">
-        <v>-2014.618416047829</v>
+        <v>-1329.850316047829</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15570</v>
+        <v>15810</v>
       </c>
       <c r="C11" t="n">
-        <v>15570</v>
+        <v>15820</v>
       </c>
       <c r="D11" t="n">
-        <v>15570</v>
+        <v>15820</v>
       </c>
       <c r="E11" t="n">
-        <v>15570</v>
+        <v>15810</v>
       </c>
       <c r="F11" t="n">
-        <v>10.8267</v>
+        <v>18.4674</v>
       </c>
       <c r="G11" t="n">
-        <v>-2014.618416047829</v>
+        <v>-1311.382916047829</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="C12" t="n">
-        <v>15700</v>
+        <v>15820</v>
       </c>
       <c r="D12" t="n">
-        <v>15700</v>
+        <v>15820</v>
       </c>
       <c r="E12" t="n">
-        <v>15610</v>
+        <v>15820</v>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>49.0605</v>
       </c>
       <c r="G12" t="n">
-        <v>-1972.618416047829</v>
+        <v>-1311.382916047829</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15740</v>
+        <v>15820</v>
       </c>
       <c r="C13" t="n">
-        <v>15750</v>
+        <v>15820</v>
       </c>
       <c r="D13" t="n">
-        <v>15750</v>
+        <v>15820</v>
       </c>
       <c r="E13" t="n">
-        <v>15740</v>
+        <v>15820</v>
       </c>
       <c r="F13" t="n">
-        <v>27.2729</v>
+        <v>14.1147</v>
       </c>
       <c r="G13" t="n">
-        <v>-1945.345516047829</v>
+        <v>-1311.382916047829</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15750</v>
+        <v>15820</v>
       </c>
       <c r="C14" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="D14" t="n">
-        <v>15870</v>
+        <v>15820</v>
       </c>
       <c r="E14" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="F14" t="n">
-        <v>79.00369999999999</v>
+        <v>35.3631</v>
       </c>
       <c r="G14" t="n">
-        <v>-2024.349216047829</v>
+        <v>-1311.382916047829</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="C15" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="D15" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="E15" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="F15" t="n">
-        <v>17.01</v>
+        <v>199.4971</v>
       </c>
       <c r="G15" t="n">
-        <v>-2024.349216047829</v>
+        <v>-1311.382916047829</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15740</v>
+        <v>15820</v>
       </c>
       <c r="C16" t="n">
-        <v>15740</v>
+        <v>15810</v>
       </c>
       <c r="D16" t="n">
-        <v>15740</v>
+        <v>15820</v>
       </c>
       <c r="E16" t="n">
-        <v>15740</v>
+        <v>15810</v>
       </c>
       <c r="F16" t="n">
-        <v>29.7577</v>
+        <v>101.0983</v>
       </c>
       <c r="G16" t="n">
-        <v>-1994.591516047828</v>
+        <v>-1412.481216047829</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15740</v>
+        <v>15810</v>
       </c>
       <c r="C17" t="n">
-        <v>15740</v>
+        <v>15810</v>
       </c>
       <c r="D17" t="n">
-        <v>15740</v>
+        <v>15810</v>
       </c>
       <c r="E17" t="n">
-        <v>15740</v>
+        <v>15810</v>
       </c>
       <c r="F17" t="n">
-        <v>54.541</v>
+        <v>3.8075</v>
       </c>
       <c r="G17" t="n">
-        <v>-1994.591516047828</v>
+        <v>-1412.481216047829</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15850</v>
+        <v>15820</v>
       </c>
       <c r="C18" t="n">
-        <v>15860</v>
+        <v>15820</v>
       </c>
       <c r="D18" t="n">
-        <v>15860</v>
+        <v>15820</v>
       </c>
       <c r="E18" t="n">
-        <v>15850</v>
+        <v>15820</v>
       </c>
       <c r="F18" t="n">
-        <v>12.59212225725095</v>
+        <v>1.8103</v>
       </c>
       <c r="G18" t="n">
-        <v>-1981.999393790577</v>
+        <v>-1410.670916047829</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="C19" t="n">
-        <v>15710</v>
+        <v>15760</v>
       </c>
       <c r="D19" t="n">
-        <v>15710</v>
+        <v>15820</v>
       </c>
       <c r="E19" t="n">
-        <v>15710</v>
+        <v>15760</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7775</v>
+        <v>268.3187</v>
       </c>
       <c r="G19" t="n">
-        <v>-1983.776893790577</v>
+        <v>-1678.989616047829</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15610</v>
+        <v>15760</v>
       </c>
       <c r="C20" t="n">
-        <v>15510</v>
+        <v>15760</v>
       </c>
       <c r="D20" t="n">
-        <v>15610</v>
+        <v>15760</v>
       </c>
       <c r="E20" t="n">
-        <v>15510</v>
+        <v>15760</v>
       </c>
       <c r="F20" t="n">
-        <v>971.6543</v>
+        <v>75.241</v>
       </c>
       <c r="G20" t="n">
-        <v>-2955.431193790577</v>
+        <v>-1678.989616047829</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15650</v>
+        <v>15750</v>
       </c>
       <c r="C21" t="n">
-        <v>15650</v>
+        <v>15730</v>
       </c>
       <c r="D21" t="n">
-        <v>15650</v>
+        <v>15750</v>
       </c>
       <c r="E21" t="n">
-        <v>15650</v>
+        <v>15730</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0057</v>
+        <v>17.9876</v>
       </c>
       <c r="G21" t="n">
-        <v>-2954.425493790577</v>
+        <v>-1696.977216047829</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15650</v>
+        <v>15730</v>
       </c>
       <c r="C22" t="n">
-        <v>15650</v>
+        <v>15690</v>
       </c>
       <c r="D22" t="n">
-        <v>15650</v>
+        <v>15730</v>
       </c>
       <c r="E22" t="n">
-        <v>15650</v>
+        <v>15690</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8100000000000001</v>
+        <v>153.7904</v>
       </c>
       <c r="G22" t="n">
-        <v>-2954.425493790577</v>
+        <v>-1850.767616047829</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15650</v>
+        <v>15690</v>
       </c>
       <c r="C23" t="n">
-        <v>15650</v>
+        <v>15690</v>
       </c>
       <c r="D23" t="n">
-        <v>15650</v>
+        <v>15690</v>
       </c>
       <c r="E23" t="n">
-        <v>15650</v>
+        <v>15690</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>33.381</v>
       </c>
       <c r="G23" t="n">
-        <v>-2954.425493790577</v>
+        <v>-1850.767616047829</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15560</v>
+        <v>15690</v>
       </c>
       <c r="C24" t="n">
-        <v>15560</v>
+        <v>15690</v>
       </c>
       <c r="D24" t="n">
-        <v>15570</v>
+        <v>15690</v>
       </c>
       <c r="E24" t="n">
-        <v>15560</v>
+        <v>15690</v>
       </c>
       <c r="F24" t="n">
-        <v>400</v>
+        <v>18.87</v>
       </c>
       <c r="G24" t="n">
-        <v>-3354.425493790577</v>
+        <v>-1850.767616047829</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15560</v>
+        <v>15690</v>
       </c>
       <c r="C25" t="n">
-        <v>15560</v>
+        <v>15680</v>
       </c>
       <c r="D25" t="n">
-        <v>15560</v>
+        <v>15690</v>
       </c>
       <c r="E25" t="n">
-        <v>15560</v>
+        <v>15680</v>
       </c>
       <c r="F25" t="n">
-        <v>201.0717</v>
+        <v>150.0938</v>
       </c>
       <c r="G25" t="n">
-        <v>-3354.425493790577</v>
+        <v>-2000.861416047829</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15500</v>
+        <v>15690</v>
       </c>
       <c r="C26" t="n">
-        <v>15500</v>
+        <v>15670</v>
       </c>
       <c r="D26" t="n">
-        <v>15500</v>
+        <v>15690</v>
       </c>
       <c r="E26" t="n">
-        <v>15500</v>
+        <v>15670</v>
       </c>
       <c r="F26" t="n">
-        <v>62.7251</v>
+        <v>96.79519999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-3417.150593790577</v>
+        <v>-2097.656616047829</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15470</v>
+        <v>15670</v>
       </c>
       <c r="C27" t="n">
-        <v>15470</v>
+        <v>15670</v>
       </c>
       <c r="D27" t="n">
-        <v>15470</v>
+        <v>15670</v>
       </c>
       <c r="E27" t="n">
-        <v>15470</v>
+        <v>15670</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>78.0294</v>
       </c>
       <c r="G27" t="n">
-        <v>-3517.150593790577</v>
+        <v>-2097.656616047829</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15460</v>
+        <v>15680</v>
       </c>
       <c r="C28" t="n">
-        <v>15450</v>
+        <v>15680</v>
       </c>
       <c r="D28" t="n">
-        <v>15460</v>
+        <v>15680</v>
       </c>
       <c r="E28" t="n">
-        <v>15450</v>
+        <v>15680</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>2.4395</v>
       </c>
       <c r="G28" t="n">
-        <v>-3617.150593790577</v>
+        <v>-2095.217116047829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15410</v>
+        <v>15690</v>
       </c>
       <c r="C29" t="n">
-        <v>15410</v>
+        <v>15680</v>
       </c>
       <c r="D29" t="n">
-        <v>15410</v>
+        <v>15690</v>
       </c>
       <c r="E29" t="n">
-        <v>15410</v>
+        <v>15680</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>44.4359</v>
       </c>
       <c r="G29" t="n">
-        <v>-3648.150593790577</v>
+        <v>-2095.217116047829</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15450</v>
+        <v>15680</v>
       </c>
       <c r="C30" t="n">
-        <v>15450</v>
+        <v>15680</v>
       </c>
       <c r="D30" t="n">
-        <v>15450</v>
+        <v>15680</v>
       </c>
       <c r="E30" t="n">
-        <v>15450</v>
+        <v>15680</v>
       </c>
       <c r="F30" t="n">
-        <v>41</v>
+        <v>76.143</v>
       </c>
       <c r="G30" t="n">
-        <v>-3607.150593790577</v>
+        <v>-2095.217116047829</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="C31" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="D31" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="E31" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6202</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>-3607.150593790577</v>
+        <v>-2100.217116047829</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15460</v>
+        <v>15620</v>
       </c>
       <c r="C32" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="D32" t="n">
-        <v>15460</v>
+        <v>15620</v>
       </c>
       <c r="E32" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="F32" t="n">
-        <v>141.0986</v>
+        <v>63.1918</v>
       </c>
       <c r="G32" t="n">
-        <v>-3748.249193790577</v>
+        <v>-2100.217116047829</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="C33" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="D33" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="E33" t="n">
-        <v>15450</v>
+        <v>15600</v>
       </c>
       <c r="F33" t="n">
-        <v>12.487</v>
+        <v>223.7228</v>
       </c>
       <c r="G33" t="n">
-        <v>-3735.762193790577</v>
+        <v>-2100.217116047829</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15450</v>
+        <v>15690</v>
       </c>
       <c r="C34" t="n">
-        <v>15450</v>
+        <v>15650</v>
       </c>
       <c r="D34" t="n">
-        <v>15450</v>
+        <v>15690</v>
       </c>
       <c r="E34" t="n">
-        <v>15450</v>
+        <v>15650</v>
       </c>
       <c r="F34" t="n">
-        <v>148.975</v>
+        <v>182.9211</v>
       </c>
       <c r="G34" t="n">
-        <v>-3735.762193790577</v>
+        <v>-1917.296016047829</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15420</v>
+        <v>15670</v>
       </c>
       <c r="C35" t="n">
-        <v>15420</v>
+        <v>15670</v>
       </c>
       <c r="D35" t="n">
-        <v>15420</v>
+        <v>15670</v>
       </c>
       <c r="E35" t="n">
-        <v>15420</v>
+        <v>15660</v>
       </c>
       <c r="F35" t="n">
-        <v>61.602</v>
+        <v>51.2324</v>
       </c>
       <c r="G35" t="n">
-        <v>-3797.364193790577</v>
+        <v>-1866.063616047829</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="C36" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="D36" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="E36" t="n">
-        <v>15440</v>
+        <v>15670</v>
       </c>
       <c r="F36" t="n">
-        <v>50.2863</v>
+        <v>9.569800000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-3747.077893790577</v>
+        <v>-1866.063616047829</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15410</v>
+        <v>15620</v>
       </c>
       <c r="C37" t="n">
-        <v>15410</v>
+        <v>15590</v>
       </c>
       <c r="D37" t="n">
-        <v>15410</v>
+        <v>15620</v>
       </c>
       <c r="E37" t="n">
-        <v>15410</v>
+        <v>15590</v>
       </c>
       <c r="F37" t="n">
-        <v>29.9999</v>
+        <v>138.2498</v>
       </c>
       <c r="G37" t="n">
-        <v>-3777.077793790576</v>
+        <v>-2004.313416047829</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="C38" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="D38" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="E38" t="n">
-        <v>15450</v>
+        <v>15610</v>
       </c>
       <c r="F38" t="n">
-        <v>61.81</v>
+        <v>11.3574</v>
       </c>
       <c r="G38" t="n">
-        <v>-3715.267793790576</v>
+        <v>-1992.956016047829</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="C39" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="D39" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="E39" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="F39" t="n">
-        <v>55.941</v>
+        <v>21.6624</v>
       </c>
       <c r="G39" t="n">
-        <v>-3715.267793790576</v>
+        <v>-2014.618416047829</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="C40" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="D40" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="E40" t="n">
-        <v>15450</v>
+        <v>15570</v>
       </c>
       <c r="F40" t="n">
-        <v>2.6504</v>
+        <v>10.8267</v>
       </c>
       <c r="G40" t="n">
-        <v>-3715.267793790576</v>
+        <v>-2014.618416047829</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="C41" t="n">
-        <v>15410</v>
+        <v>15700</v>
       </c>
       <c r="D41" t="n">
-        <v>15410</v>
+        <v>15700</v>
       </c>
       <c r="E41" t="n">
-        <v>15410</v>
+        <v>15610</v>
       </c>
       <c r="F41" t="n">
-        <v>113.6866</v>
+        <v>42</v>
       </c>
       <c r="G41" t="n">
-        <v>-3828.954393790576</v>
+        <v>-1972.618416047829</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="C42" t="n">
-        <v>15410</v>
+        <v>15750</v>
       </c>
       <c r="D42" t="n">
-        <v>15410</v>
+        <v>15750</v>
       </c>
       <c r="E42" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="F42" t="n">
-        <v>9.8687</v>
+        <v>27.2729</v>
       </c>
       <c r="G42" t="n">
-        <v>-3828.954393790576</v>
+        <v>-1945.345516047829</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15410</v>
+        <v>15750</v>
       </c>
       <c r="C43" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="D43" t="n">
-        <v>15410</v>
+        <v>15870</v>
       </c>
       <c r="E43" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="F43" t="n">
-        <v>264.2772</v>
+        <v>79.00369999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-3828.954393790576</v>
+        <v>-2024.349216047829</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="C44" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="D44" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="E44" t="n">
-        <v>15410</v>
+        <v>15710</v>
       </c>
       <c r="F44" t="n">
-        <v>11.4135</v>
+        <v>17.01</v>
       </c>
       <c r="G44" t="n">
-        <v>-3828.954393790576</v>
+        <v>-2024.349216047829</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="C45" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="D45" t="n">
-        <v>15410</v>
+        <v>15740</v>
       </c>
       <c r="E45" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="F45" t="n">
-        <v>149.93</v>
+        <v>29.7577</v>
       </c>
       <c r="G45" t="n">
-        <v>-3978.884393790576</v>
+        <v>-1994.591516047828</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="C46" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="D46" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="E46" t="n">
-        <v>15400</v>
+        <v>15740</v>
       </c>
       <c r="F46" t="n">
-        <v>87.33759999999999</v>
+        <v>54.541</v>
       </c>
       <c r="G46" t="n">
-        <v>-3978.884393790576</v>
+        <v>-1994.591516047828</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15400</v>
+        <v>15850</v>
       </c>
       <c r="C47" t="n">
-        <v>15400</v>
+        <v>15860</v>
       </c>
       <c r="D47" t="n">
-        <v>15400</v>
+        <v>15860</v>
       </c>
       <c r="E47" t="n">
-        <v>15400</v>
+        <v>15850</v>
       </c>
       <c r="F47" t="n">
-        <v>2.8314</v>
+        <v>12.59212225725095</v>
       </c>
       <c r="G47" t="n">
-        <v>-3978.884393790576</v>
+        <v>-1981.999393790577</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="C48" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="D48" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="E48" t="n">
-        <v>15400</v>
+        <v>15710</v>
       </c>
       <c r="F48" t="n">
-        <v>7.8288</v>
+        <v>1.7775</v>
       </c>
       <c r="G48" t="n">
-        <v>-3978.884393790576</v>
+        <v>-1983.776893790577</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15400</v>
+        <v>15610</v>
       </c>
       <c r="C49" t="n">
-        <v>15400</v>
+        <v>15510</v>
       </c>
       <c r="D49" t="n">
-        <v>15400</v>
+        <v>15610</v>
       </c>
       <c r="E49" t="n">
-        <v>15400</v>
+        <v>15510</v>
       </c>
       <c r="F49" t="n">
-        <v>5.827</v>
+        <v>971.6543</v>
       </c>
       <c r="G49" t="n">
-        <v>-3978.884393790576</v>
+        <v>-2955.431193790577</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="C50" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="D50" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="E50" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="F50" t="n">
-        <v>11.11</v>
+        <v>1.0057</v>
       </c>
       <c r="G50" t="n">
-        <v>-3978.884393790576</v>
+        <v>-2954.425493790577</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="C51" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="D51" t="n">
-        <v>15400</v>
+        <v>15650</v>
       </c>
       <c r="E51" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="F51" t="n">
-        <v>70.6692</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-4049.553593790576</v>
+        <v>-2954.425493790577</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="C52" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="D52" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="E52" t="n">
-        <v>15390</v>
+        <v>15650</v>
       </c>
       <c r="F52" t="n">
-        <v>54.0791</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-4049.553593790576</v>
+        <v>-2954.425493790577</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15410</v>
+        <v>15560</v>
       </c>
       <c r="C53" t="n">
-        <v>15410</v>
+        <v>15560</v>
       </c>
       <c r="D53" t="n">
-        <v>15410</v>
+        <v>15570</v>
       </c>
       <c r="E53" t="n">
-        <v>15410</v>
+        <v>15560</v>
       </c>
       <c r="F53" t="n">
-        <v>194.4763789746918</v>
+        <v>400</v>
       </c>
       <c r="G53" t="n">
-        <v>-3855.077214815884</v>
+        <v>-3354.425493790577</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="C54" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="D54" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="E54" t="n">
-        <v>15390</v>
+        <v>15560</v>
       </c>
       <c r="F54" t="n">
-        <v>166.3014</v>
+        <v>201.0717</v>
       </c>
       <c r="G54" t="n">
-        <v>-4021.378614815884</v>
+        <v>-3354.425493790577</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="C55" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="D55" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="E55" t="n">
-        <v>15410</v>
+        <v>15500</v>
       </c>
       <c r="F55" t="n">
-        <v>7.5231</v>
+        <v>62.7251</v>
       </c>
       <c r="G55" t="n">
-        <v>-4013.855514815884</v>
+        <v>-3417.150593790577</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="C56" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="D56" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="E56" t="n">
-        <v>15410</v>
+        <v>15470</v>
       </c>
       <c r="F56" t="n">
-        <v>15.76052102530824</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>-4013.855514815884</v>
+        <v>-3517.150593790577</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15480</v>
+        <v>15460</v>
       </c>
       <c r="C57" t="n">
-        <v>15480</v>
+        <v>15450</v>
       </c>
       <c r="D57" t="n">
-        <v>15480</v>
+        <v>15460</v>
       </c>
       <c r="E57" t="n">
-        <v>15480</v>
+        <v>15450</v>
       </c>
       <c r="F57" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>-3964.855514815884</v>
+        <v>-3617.150593790577</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="C58" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="D58" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="E58" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="F58" t="n">
-        <v>0.034</v>
+        <v>31</v>
       </c>
       <c r="G58" t="n">
-        <v>-3964.821514815884</v>
+        <v>-3648.150593790577</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="C59" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="D59" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="E59" t="n">
-        <v>15500</v>
+        <v>15450</v>
       </c>
       <c r="F59" t="n">
-        <v>12.5876</v>
+        <v>41</v>
       </c>
       <c r="G59" t="n">
-        <v>-3977.409114815884</v>
+        <v>-3607.150593790577</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="C60" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="D60" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="E60" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="F60" t="n">
-        <v>2.0569</v>
+        <v>0.6202</v>
       </c>
       <c r="G60" t="n">
-        <v>-3975.352214815884</v>
+        <v>-3607.150593790577</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15510</v>
+        <v>15460</v>
       </c>
       <c r="C61" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="D61" t="n">
-        <v>15510</v>
+        <v>15460</v>
       </c>
       <c r="E61" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0593</v>
+        <v>141.0986</v>
       </c>
       <c r="G61" t="n">
-        <v>-3975.352214815884</v>
+        <v>-3748.249193790577</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="C62" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="D62" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="E62" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="F62" t="n">
-        <v>1.146</v>
+        <v>12.487</v>
       </c>
       <c r="G62" t="n">
-        <v>-3975.352214815884</v>
+        <v>-3735.762193790577</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="C63" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="D63" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="E63" t="n">
-        <v>15510</v>
+        <v>15450</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4486</v>
+        <v>148.975</v>
       </c>
       <c r="G63" t="n">
-        <v>-3975.352214815884</v>
+        <v>-3735.762193790577</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="C64" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="D64" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="E64" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="F64" t="n">
-        <v>1.9613</v>
+        <v>61.602</v>
       </c>
       <c r="G64" t="n">
-        <v>-3977.313514815884</v>
+        <v>-3797.364193790577</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="C65" t="n">
-        <v>15490</v>
+        <v>15440</v>
       </c>
       <c r="D65" t="n">
-        <v>15490</v>
+        <v>15440</v>
       </c>
       <c r="E65" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="F65" t="n">
-        <v>47.9192</v>
+        <v>50.2863</v>
       </c>
       <c r="G65" t="n">
-        <v>-3929.394314815884</v>
+        <v>-3747.077893790577</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15420</v>
+        <v>15410</v>
       </c>
       <c r="C66" t="n">
         <v>15410</v>
       </c>
       <c r="D66" t="n">
-        <v>15420</v>
+        <v>15410</v>
       </c>
       <c r="E66" t="n">
         <v>15410</v>
       </c>
       <c r="F66" t="n">
-        <v>63.4475</v>
+        <v>29.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>-3992.841814815884</v>
+        <v>-3777.077793790576</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="C67" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="D67" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="E67" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="F67" t="n">
-        <v>40.8072</v>
+        <v>61.81</v>
       </c>
       <c r="G67" t="n">
-        <v>-3992.841814815884</v>
+        <v>-3715.267793790576</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="C68" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="D68" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="E68" t="n">
-        <v>15410</v>
+        <v>15450</v>
       </c>
       <c r="F68" t="n">
-        <v>33.8265</v>
+        <v>55.941</v>
       </c>
       <c r="G68" t="n">
-        <v>-3992.841814815884</v>
+        <v>-3715.267793790576</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="C69" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="D69" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="E69" t="n">
-        <v>15460</v>
+        <v>15450</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3524</v>
+        <v>2.6504</v>
       </c>
       <c r="G69" t="n">
-        <v>-3992.489414815884</v>
+        <v>-3715.267793790576</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15460</v>
+        <v>15410</v>
       </c>
       <c r="C70" t="n">
         <v>15410</v>
       </c>
       <c r="D70" t="n">
-        <v>15470</v>
+        <v>15410</v>
       </c>
       <c r="E70" t="n">
         <v>15410</v>
       </c>
       <c r="F70" t="n">
-        <v>5.9109</v>
+        <v>113.6866</v>
       </c>
       <c r="G70" t="n">
-        <v>-3998.400314815884</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>15410</v>
       </c>
       <c r="F71" t="n">
-        <v>3.41</v>
+        <v>9.8687</v>
       </c>
       <c r="G71" t="n">
-        <v>-3998.400314815884</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>15410</v>
       </c>
       <c r="F72" t="n">
-        <v>7.1185</v>
+        <v>264.2772</v>
       </c>
       <c r="G72" t="n">
-        <v>-3998.400314815884</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>15410</v>
       </c>
       <c r="C73" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="D73" t="n">
         <v>15410</v>
       </c>
       <c r="E73" t="n">
-        <v>15400</v>
+        <v>15410</v>
       </c>
       <c r="F73" t="n">
-        <v>76.1361</v>
+        <v>11.4135</v>
       </c>
       <c r="G73" t="n">
-        <v>-4074.536414815884</v>
+        <v>-3828.954393790576</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="C74" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="D74" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="E74" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="F74" t="n">
-        <v>12.2498</v>
+        <v>149.93</v>
       </c>
       <c r="G74" t="n">
-        <v>-4062.286614815884</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="C75" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="D75" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="E75" t="n">
-        <v>15510</v>
+        <v>15400</v>
       </c>
       <c r="F75" t="n">
-        <v>3.8002</v>
+        <v>87.33759999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>-4062.286614815884</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="C76" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="D76" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="E76" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="F76" t="n">
-        <v>4.7108</v>
+        <v>2.8314</v>
       </c>
       <c r="G76" t="n">
-        <v>-4057.575814815884</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="C77" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="D77" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="E77" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="F77" t="n">
-        <v>6.8305</v>
+        <v>7.8288</v>
       </c>
       <c r="G77" t="n">
-        <v>-4057.575814815884</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="C78" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="D78" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="E78" t="n">
-        <v>15570</v>
+        <v>15400</v>
       </c>
       <c r="F78" t="n">
-        <v>0.033</v>
+        <v>5.827</v>
       </c>
       <c r="G78" t="n">
-        <v>-4057.542814815884</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="C79" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="D79" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="E79" t="n">
-        <v>15520</v>
+        <v>15400</v>
       </c>
       <c r="F79" t="n">
-        <v>3.877</v>
+        <v>11.11</v>
       </c>
       <c r="G79" t="n">
-        <v>-4061.419814815884</v>
+        <v>-3978.884393790576</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15540</v>
+        <v>15400</v>
       </c>
       <c r="C80" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="D80" t="n">
-        <v>15580</v>
+        <v>15400</v>
       </c>
       <c r="E80" t="n">
-        <v>15540</v>
+        <v>15390</v>
       </c>
       <c r="F80" t="n">
-        <v>137.009</v>
+        <v>70.6692</v>
       </c>
       <c r="G80" t="n">
-        <v>-3924.410814815884</v>
+        <v>-4049.553593790576</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="C81" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="D81" t="n">
-        <v>15600</v>
+        <v>15390</v>
       </c>
       <c r="E81" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="F81" t="n">
-        <v>256.7351</v>
+        <v>54.0791</v>
       </c>
       <c r="G81" t="n">
-        <v>-3924.410814815884</v>
+        <v>-4049.553593790576</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="C82" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="D82" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="E82" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>194.4763789746918</v>
       </c>
       <c r="G82" t="n">
-        <v>-3926.410814815884</v>
+        <v>-3855.077214815884</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15570</v>
+        <v>15390</v>
       </c>
       <c r="C83" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="D83" t="n">
-        <v>15580</v>
+        <v>15390</v>
       </c>
       <c r="E83" t="n">
-        <v>15570</v>
+        <v>15390</v>
       </c>
       <c r="F83" t="n">
-        <v>0.066</v>
+        <v>166.3014</v>
       </c>
       <c r="G83" t="n">
-        <v>-3926.344814815885</v>
+        <v>-4021.378614815884</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15530</v>
+        <v>15410</v>
       </c>
       <c r="C84" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="D84" t="n">
-        <v>15530</v>
+        <v>15410</v>
       </c>
       <c r="E84" t="n">
-        <v>15520</v>
+        <v>15410</v>
       </c>
       <c r="F84" t="n">
-        <v>25.408</v>
+        <v>7.5231</v>
       </c>
       <c r="G84" t="n">
-        <v>-3951.752814815884</v>
+        <v>-4013.855514815884</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="C85" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="D85" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="E85" t="n">
-        <v>15550</v>
+        <v>15410</v>
       </c>
       <c r="F85" t="n">
-        <v>0.033</v>
+        <v>15.76052102530824</v>
       </c>
       <c r="G85" t="n">
-        <v>-3951.719814815885</v>
+        <v>-4013.855514815884</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15530</v>
+        <v>15480</v>
       </c>
       <c r="C86" t="n">
-        <v>15520</v>
+        <v>15480</v>
       </c>
       <c r="D86" t="n">
-        <v>15530</v>
+        <v>15480</v>
       </c>
       <c r="E86" t="n">
-        <v>15520</v>
+        <v>15480</v>
       </c>
       <c r="F86" t="n">
-        <v>3.8129</v>
+        <v>49</v>
       </c>
       <c r="G86" t="n">
-        <v>-3955.532714815884</v>
+        <v>-3964.855514815884</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15530</v>
+        <v>15510</v>
       </c>
       <c r="C87" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="D87" t="n">
-        <v>15530</v>
+        <v>15510</v>
       </c>
       <c r="E87" t="n">
-        <v>15520</v>
+        <v>15510</v>
       </c>
       <c r="F87" t="n">
-        <v>7.3262</v>
+        <v>0.034</v>
       </c>
       <c r="G87" t="n">
-        <v>-3955.532714815884</v>
+        <v>-3964.821514815884</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="C88" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="D88" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="E88" t="n">
-        <v>15530</v>
+        <v>15500</v>
       </c>
       <c r="F88" t="n">
-        <v>0.066</v>
+        <v>12.5876</v>
       </c>
       <c r="G88" t="n">
-        <v>-3955.466714815885</v>
+        <v>-3977.409114815884</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="C89" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="D89" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="E89" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>2.0569</v>
       </c>
       <c r="G89" t="n">
-        <v>-3957.466714815885</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="C90" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="D90" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="E90" t="n">
-        <v>15490</v>
+        <v>15510</v>
       </c>
       <c r="F90" t="n">
-        <v>45.2374</v>
+        <v>1.0593</v>
       </c>
       <c r="G90" t="n">
-        <v>-3957.466714815885</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="C91" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="D91" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="E91" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="F91" t="n">
-        <v>26.806</v>
+        <v>1.146</v>
       </c>
       <c r="G91" t="n">
-        <v>-3984.272714815885</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="C92" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="D92" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="E92" t="n">
-        <v>15480</v>
+        <v>15510</v>
       </c>
       <c r="F92" t="n">
-        <v>58.4074</v>
+        <v>0.4486</v>
       </c>
       <c r="G92" t="n">
-        <v>-3984.272714815885</v>
+        <v>-3975.352214815884</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="C93" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="D93" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="E93" t="n">
-        <v>15430</v>
+        <v>15440</v>
       </c>
       <c r="F93" t="n">
-        <v>1.5726</v>
+        <v>1.9613</v>
       </c>
       <c r="G93" t="n">
-        <v>-3985.845314815885</v>
+        <v>-3977.313514815884</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="C94" t="n">
         <v>15490</v>
@@ -3759,13 +3759,13 @@
         <v>15490</v>
       </c>
       <c r="E94" t="n">
-        <v>15490</v>
+        <v>15430</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1538</v>
+        <v>47.9192</v>
       </c>
       <c r="G94" t="n">
-        <v>-3985.691514815885</v>
+        <v>-3929.394314815884</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="C95" t="n">
-        <v>15440</v>
+        <v>15410</v>
       </c>
       <c r="D95" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="E95" t="n">
-        <v>15440</v>
+        <v>15410</v>
       </c>
       <c r="F95" t="n">
-        <v>1.9434</v>
+        <v>63.4475</v>
       </c>
       <c r="G95" t="n">
-        <v>-3987.634914815885</v>
+        <v>-3992.841814815884</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="C96" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="D96" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="E96" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="F96" t="n">
-        <v>46.7589</v>
+        <v>40.8072</v>
       </c>
       <c r="G96" t="n">
-        <v>-4034.393814815885</v>
+        <v>-3992.841814815884</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="C97" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="D97" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="E97" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="F97" t="n">
-        <v>2.295</v>
+        <v>33.8265</v>
       </c>
       <c r="G97" t="n">
-        <v>-4034.393814815885</v>
+        <v>-3992.841814815884</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,35 +3894,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15430</v>
+        <v>15460</v>
       </c>
       <c r="C98" t="n">
-        <v>15430</v>
+        <v>15460</v>
       </c>
       <c r="D98" t="n">
-        <v>15430</v>
+        <v>15460</v>
       </c>
       <c r="E98" t="n">
-        <v>15430</v>
+        <v>15460</v>
       </c>
       <c r="F98" t="n">
-        <v>75.90049999999999</v>
+        <v>0.3524</v>
       </c>
       <c r="G98" t="n">
-        <v>-4034.393814815885</v>
+        <v>-3992.489414815884</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K98" t="n">
-        <v>15430</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
@@ -3934,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15430</v>
+        <v>15460</v>
       </c>
       <c r="C99" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="D99" t="n">
-        <v>15430</v>
+        <v>15470</v>
       </c>
       <c r="E99" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="F99" t="n">
-        <v>36.2742</v>
+        <v>5.9109</v>
       </c>
       <c r="G99" t="n">
-        <v>-4034.393814815885</v>
+        <v>-3998.400314815884</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3958,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3976,40 +3966,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="C100" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="D100" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="E100" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="F100" t="n">
-        <v>44.9252</v>
+        <v>3.41</v>
       </c>
       <c r="G100" t="n">
-        <v>-4034.393814815885</v>
+        <v>-3998.400314815884</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K100" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4020,35 +4002,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="C101" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="D101" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="E101" t="n">
-        <v>15430</v>
+        <v>15410</v>
       </c>
       <c r="F101" t="n">
-        <v>48.158</v>
+        <v>7.1185</v>
       </c>
       <c r="G101" t="n">
-        <v>-4034.393814815885</v>
+        <v>-3998.400314815884</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K101" t="n">
-        <v>15430</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -4063,37 +4041,29 @@
         <v>15410</v>
       </c>
       <c r="C102" t="n">
-        <v>15410</v>
+        <v>15400</v>
       </c>
       <c r="D102" t="n">
         <v>15410</v>
       </c>
       <c r="E102" t="n">
-        <v>15410</v>
+        <v>15400</v>
       </c>
       <c r="F102" t="n">
-        <v>85.8158</v>
+        <v>76.1361</v>
       </c>
       <c r="G102" t="n">
-        <v>-4120.209614815884</v>
+        <v>-4074.536414815884</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K102" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4104,40 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="C103" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="D103" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="E103" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="F103" t="n">
-        <v>7.367</v>
+        <v>12.2498</v>
       </c>
       <c r="G103" t="n">
-        <v>-4112.842614815884</v>
+        <v>-4062.286614815884</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>15410</v>
-      </c>
-      <c r="K103" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4148,35 +4110,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="C104" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="D104" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="E104" t="n">
-        <v>15430</v>
+        <v>15510</v>
       </c>
       <c r="F104" t="n">
-        <v>2.654</v>
+        <v>3.8002</v>
       </c>
       <c r="G104" t="n">
-        <v>-4112.842614815884</v>
+        <v>-4062.286614815884</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K104" t="n">
-        <v>15430</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
@@ -4188,40 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15400</v>
+        <v>15520</v>
       </c>
       <c r="C105" t="n">
-        <v>15400</v>
+        <v>15520</v>
       </c>
       <c r="D105" t="n">
-        <v>15400</v>
+        <v>15520</v>
       </c>
       <c r="E105" t="n">
-        <v>15400</v>
+        <v>15520</v>
       </c>
       <c r="F105" t="n">
-        <v>59.4033</v>
+        <v>4.7108</v>
       </c>
       <c r="G105" t="n">
-        <v>-4172.245914815884</v>
+        <v>-4057.575814815884</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K105" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4232,40 +4182,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15390</v>
+        <v>15520</v>
       </c>
       <c r="C106" t="n">
-        <v>15390</v>
+        <v>15520</v>
       </c>
       <c r="D106" t="n">
-        <v>15390</v>
+        <v>15520</v>
       </c>
       <c r="E106" t="n">
-        <v>15390</v>
+        <v>15520</v>
       </c>
       <c r="F106" t="n">
-        <v>2.459</v>
+        <v>6.8305</v>
       </c>
       <c r="G106" t="n">
-        <v>-4174.704914815884</v>
+        <v>-4057.575814815884</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>15400</v>
-      </c>
-      <c r="K106" t="n">
-        <v>15430</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4276,35 +4218,31 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15390</v>
+        <v>15570</v>
       </c>
       <c r="C107" t="n">
-        <v>15390</v>
+        <v>15570</v>
       </c>
       <c r="D107" t="n">
-        <v>15390</v>
+        <v>15570</v>
       </c>
       <c r="E107" t="n">
-        <v>15390</v>
+        <v>15570</v>
       </c>
       <c r="F107" t="n">
-        <v>15.236</v>
+        <v>0.033</v>
       </c>
       <c r="G107" t="n">
-        <v>-4174.704914815884</v>
+        <v>-4057.542814815884</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>15390</v>
-      </c>
-      <c r="K107" t="n">
-        <v>15390</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
@@ -4316,40 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15380</v>
+        <v>15520</v>
       </c>
       <c r="C108" t="n">
-        <v>15380</v>
+        <v>15520</v>
       </c>
       <c r="D108" t="n">
-        <v>15380</v>
+        <v>15520</v>
       </c>
       <c r="E108" t="n">
-        <v>15380</v>
+        <v>15520</v>
       </c>
       <c r="F108" t="n">
-        <v>6.1299</v>
+        <v>3.877</v>
       </c>
       <c r="G108" t="n">
-        <v>-4180.834814815884</v>
+        <v>-4061.419814815884</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>15390</v>
-      </c>
-      <c r="K108" t="n">
-        <v>15390</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4360,40 +4290,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15380</v>
+        <v>15540</v>
       </c>
       <c r="C109" t="n">
-        <v>15380</v>
+        <v>15580</v>
       </c>
       <c r="D109" t="n">
-        <v>15380</v>
+        <v>15580</v>
       </c>
       <c r="E109" t="n">
-        <v>15380</v>
+        <v>15540</v>
       </c>
       <c r="F109" t="n">
-        <v>14.544</v>
+        <v>137.009</v>
       </c>
       <c r="G109" t="n">
-        <v>-4180.834814815884</v>
+        <v>-3924.410814815884</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>15380</v>
-      </c>
-      <c r="K109" t="n">
-        <v>15390</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4404,35 +4326,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15370</v>
+        <v>15580</v>
       </c>
       <c r="C110" t="n">
-        <v>15370</v>
+        <v>15580</v>
       </c>
       <c r="D110" t="n">
-        <v>15370</v>
+        <v>15600</v>
       </c>
       <c r="E110" t="n">
-        <v>15370</v>
+        <v>15580</v>
       </c>
       <c r="F110" t="n">
-        <v>59.7861</v>
+        <v>256.7351</v>
       </c>
       <c r="G110" t="n">
-        <v>-4240.620914815884</v>
+        <v>-3924.410814815884</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>15380</v>
-      </c>
-      <c r="K110" t="n">
-        <v>15380</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
@@ -4444,40 +4362,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15370</v>
+        <v>15520</v>
       </c>
       <c r="C111" t="n">
-        <v>15370</v>
+        <v>15520</v>
       </c>
       <c r="D111" t="n">
-        <v>15370</v>
+        <v>15520</v>
       </c>
       <c r="E111" t="n">
-        <v>15370</v>
+        <v>15520</v>
       </c>
       <c r="F111" t="n">
-        <v>5.8365</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>-4240.620914815884</v>
+        <v>-3926.410814815884</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>15370</v>
-      </c>
-      <c r="K111" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4488,1334 +4398,1118 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>15570</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15580</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15580</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15570</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3926.344814815885</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D113" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E113" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F113" t="n">
+        <v>25.408</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-3951.752814815884</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>15550</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15550</v>
+      </c>
+      <c r="D114" t="n">
+        <v>15550</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15550</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3951.719814815885</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C115" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D115" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.8129</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-3955.532714815884</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C116" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D116" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15520</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7.3262</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3955.532714815884</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>15530</v>
+      </c>
+      <c r="C117" t="n">
+        <v>15530</v>
+      </c>
+      <c r="D117" t="n">
+        <v>15530</v>
+      </c>
+      <c r="E117" t="n">
+        <v>15530</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-3955.466714815885</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C118" t="n">
+        <v>15490</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15490</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15490</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-3957.466714815885</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C119" t="n">
+        <v>15490</v>
+      </c>
+      <c r="D119" t="n">
+        <v>15490</v>
+      </c>
+      <c r="E119" t="n">
+        <v>15490</v>
+      </c>
+      <c r="F119" t="n">
+        <v>45.2374</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3957.466714815885</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>15480</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15480</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15480</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15480</v>
+      </c>
+      <c r="F120" t="n">
+        <v>26.806</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-3984.272714815885</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>15480</v>
+      </c>
+      <c r="C121" t="n">
+        <v>15480</v>
+      </c>
+      <c r="D121" t="n">
+        <v>15480</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15480</v>
+      </c>
+      <c r="F121" t="n">
+        <v>58.4074</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-3984.272714815885</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C122" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D122" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.5726</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-3985.845314815885</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15490</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15490</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15490</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-3985.691514815885</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15440</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15440</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15440</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15440</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.9434</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3987.634914815885</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C125" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D125" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E125" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F125" t="n">
+        <v>46.7589</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C126" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.295</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D127" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F127" t="n">
+        <v>75.90049999999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C128" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E128" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F128" t="n">
+        <v>36.2742</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F129" t="n">
+        <v>44.9252</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C130" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E130" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F130" t="n">
+        <v>48.158</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4034.393814815885</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>15410</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15410</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E131" t="n">
+        <v>15410</v>
+      </c>
+      <c r="F131" t="n">
+        <v>85.8158</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4120.209614815884</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C132" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D132" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E132" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7.367</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4112.842614815884</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D133" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E133" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4112.842614815884</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15400</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15400</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15400</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F134" t="n">
+        <v>59.4033</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4172.245914815884</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15390</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15390</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15390</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15390</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.459</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4174.704914815884</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15390</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15390</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15390</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15390</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15.236</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4174.704914815884</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>15380</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15380</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15380</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15380</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6.1299</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4180.834814815884</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15380</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15380</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15380</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15380</v>
+      </c>
+      <c r="F138" t="n">
+        <v>14.544</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4180.834814815884</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>15370</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15370</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15370</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15370</v>
+      </c>
+      <c r="F139" t="n">
+        <v>59.7861</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4240.620914815884</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>15370</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15370</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15370</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15370</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.8365</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4240.620914815884</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>15360</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C141" t="n">
         <v>15350</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D141" t="n">
         <v>15360</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E141" t="n">
         <v>15350</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F141" t="n">
         <v>2.3878</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G141" t="n">
         <v>-4243.008714815885</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>15370</v>
-      </c>
-      <c r="K112" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15360</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15350</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15360</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15350</v>
+      </c>
+      <c r="F142" t="n">
+        <v>25.5742</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4243.008714815885</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15350</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>15360</v>
-      </c>
-      <c r="C113" t="n">
-        <v>15350</v>
-      </c>
-      <c r="D113" t="n">
-        <v>15360</v>
-      </c>
-      <c r="E113" t="n">
-        <v>15350</v>
-      </c>
-      <c r="F113" t="n">
-        <v>25.5742</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-4243.008714815885</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>15350</v>
-      </c>
-      <c r="K113" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>15340</v>
-      </c>
-      <c r="C114" t="n">
-        <v>15340</v>
-      </c>
-      <c r="D114" t="n">
-        <v>15340</v>
-      </c>
-      <c r="E114" t="n">
-        <v>15340</v>
-      </c>
-      <c r="F114" t="n">
-        <v>15.1039</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-4258.112614815885</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>15350</v>
-      </c>
-      <c r="K114" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C115" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D115" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E115" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F115" t="n">
-        <v>45</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>15340</v>
-      </c>
-      <c r="K115" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>15300</v>
-      </c>
-      <c r="C116" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D116" t="n">
-        <v>15300</v>
-      </c>
-      <c r="E116" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F116" t="n">
-        <v>8.387</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K116" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>15300</v>
-      </c>
-      <c r="C117" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D117" t="n">
-        <v>15300</v>
-      </c>
-      <c r="E117" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F117" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K117" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>15310</v>
-      </c>
-      <c r="C118" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D118" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E118" t="n">
-        <v>15310</v>
-      </c>
-      <c r="F118" t="n">
-        <v>50.7396</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K118" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C119" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D119" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E119" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F119" t="n">
-        <v>13.497</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K119" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C120" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D120" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E120" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F120" t="n">
-        <v>39.9327</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K120" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C121" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D121" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E121" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K121" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C122" t="n">
-        <v>15310</v>
-      </c>
-      <c r="D122" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E122" t="n">
-        <v>15310</v>
-      </c>
-      <c r="F122" t="n">
-        <v>12.2219</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-4264.594914815884</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K122" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C123" t="n">
-        <v>15280</v>
-      </c>
-      <c r="D123" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E123" t="n">
-        <v>15280</v>
-      </c>
-      <c r="F123" t="n">
-        <v>55.7827</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-4320.377614815884</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>15310</v>
-      </c>
-      <c r="K123" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C124" t="n">
-        <v>15270</v>
-      </c>
-      <c r="D124" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E124" t="n">
-        <v>15270</v>
-      </c>
-      <c r="F124" t="n">
-        <v>30.801</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-4351.178614815884</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>15280</v>
-      </c>
-      <c r="K124" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C125" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D125" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E125" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F125" t="n">
-        <v>12.5332</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>15270</v>
-      </c>
-      <c r="K125" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C126" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D126" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E126" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11.6572</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K126" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C127" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D127" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E127" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F127" t="n">
-        <v>209.9491</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-4573.660914815884</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K127" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C128" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D128" t="n">
-        <v>15210</v>
-      </c>
-      <c r="E128" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F128" t="n">
-        <v>102.5351</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-4573.660914815884</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K128" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>15200</v>
-      </c>
-      <c r="C129" t="n">
-        <v>15150</v>
-      </c>
-      <c r="D129" t="n">
-        <v>15200</v>
-      </c>
-      <c r="E129" t="n">
-        <v>15150</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19.9032</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-4593.564114815884</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C130" t="n">
-        <v>15210</v>
-      </c>
-      <c r="D130" t="n">
-        <v>15210</v>
-      </c>
-      <c r="E130" t="n">
-        <v>15210</v>
-      </c>
-      <c r="F130" t="n">
-        <v>326.7</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-4266.864114815884</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K130" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>15160</v>
-      </c>
-      <c r="C131" t="n">
-        <v>15160</v>
-      </c>
-      <c r="D131" t="n">
-        <v>15160</v>
-      </c>
-      <c r="E131" t="n">
-        <v>15160</v>
-      </c>
-      <c r="F131" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-4280.594114815884</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>15160</v>
-      </c>
-      <c r="C132" t="n">
-        <v>15270</v>
-      </c>
-      <c r="D132" t="n">
-        <v>15270</v>
-      </c>
-      <c r="E132" t="n">
-        <v>15150</v>
-      </c>
-      <c r="F132" t="n">
-        <v>68.9727</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-4211.621414815883</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C133" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D133" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E133" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10.8988</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C134" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D134" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E134" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.3712</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C135" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D135" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E135" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F135" t="n">
-        <v>60</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>15270</v>
-      </c>
-      <c r="C136" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D136" t="n">
-        <v>15270</v>
-      </c>
-      <c r="E136" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10.0021</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C137" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F137" t="n">
-        <v>17.0767</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C138" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D138" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E138" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C139" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D139" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E139" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C140" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D140" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E140" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F140" t="n">
-        <v>3.1958</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C141" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F141" t="n">
-        <v>38.4619</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C142" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D142" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E142" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F142" t="n">
-        <v>16.4072</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>15380</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5826,22 +5520,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15330</v>
+        <v>15340</v>
       </c>
       <c r="C143" t="n">
-        <v>15330</v>
+        <v>15340</v>
       </c>
       <c r="D143" t="n">
-        <v>15330</v>
+        <v>15340</v>
       </c>
       <c r="E143" t="n">
-        <v>15330</v>
+        <v>15340</v>
       </c>
       <c r="F143" t="n">
-        <v>2.0867</v>
+        <v>15.1039</v>
       </c>
       <c r="G143" t="n">
-        <v>-4210.431414815884</v>
+        <v>-4258.112614815885</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5850,9 +5544,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>15380</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,6 +5555,1222 @@
       </c>
       <c r="N143" t="inlineStr"/>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F144" t="n">
+        <v>45</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8.387</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15310</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15310</v>
+      </c>
+      <c r="F147" t="n">
+        <v>50.7396</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15300</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13.497</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F149" t="n">
+        <v>39.9327</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12.2219</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4264.594914815884</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F152" t="n">
+        <v>55.7827</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4320.377614815884</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>15310</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4351.178614815884</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.5332</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>15270</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11.6572</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F156" t="n">
+        <v>209.9491</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4573.660914815884</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F157" t="n">
+        <v>102.5351</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4573.660914815884</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>15200</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15200</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15150</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15200</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19.9032</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4593.564114815884</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>15200</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="F159" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4266.864114815884</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4280.594114815884</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>15210</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15160</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15270</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15270</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F161" t="n">
+        <v>68.9727</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4211.621414815883</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>15160</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10.8988</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15270</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.3712</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F164" t="n">
+        <v>60</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15270</v>
+      </c>
+      <c r="E165" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10.0021</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>15250</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17.0767</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3.1958</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F170" t="n">
+        <v>38.4619</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16.4072</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.0867</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4210.431414815884</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>15260</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-1348.739616047829</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-1351.739616047829</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-1325.841416047829</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-1329.850316047829</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-1410.670916047829</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-1696.977216047829</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-2000.861416047829</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-2100.217116047829</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-1981.999393790577</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-1983.776893790577</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-2955.431193790577</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-3354.425493790577</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-3354.425493790577</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-3926.410814815884</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-3926.344814815885</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-3951.752814815884</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>-3951.719814815885</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,1282 +5071,1107 @@
         <v>-4243.008714815885</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>15350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15.1039</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4258.112614815885</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F144" t="n">
+        <v>45</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8.387</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15310</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15310</v>
+      </c>
+      <c r="F147" t="n">
+        <v>50.7396</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13.497</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F149" t="n">
+        <v>39.9327</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12.2219</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4264.594914815884</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F152" t="n">
+        <v>55.7827</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4320.377614815884</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4351.178614815884</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.5332</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11.6572</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F156" t="n">
+        <v>209.9491</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4573.660914815884</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F157" t="n">
+        <v>102.5351</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4573.660914815884</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15200</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15150</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15200</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19.9032</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4593.564114815884</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="F159" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4266.864114815884</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J159" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4280.594114815884</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15160</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15270</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15270</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F161" t="n">
+        <v>68.9727</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4211.621414815883</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="C143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="E143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="F143" t="n">
-        <v>15.1039</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-4258.112614815885</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10.8988</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C144" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D144" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E144" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F144" t="n">
-        <v>45</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.3712</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="C145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="E145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F145" t="n">
-        <v>8.387</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F164" t="n">
+        <v>60</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4222.520214815883</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="J164" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="C146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="E146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F146" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15270</v>
+      </c>
+      <c r="E165" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10.0021</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" t="n">
+        <v>15250</v>
+      </c>
+      <c r="J165" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>15310</v>
-      </c>
-      <c r="C147" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D147" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E147" t="n">
-        <v>15310</v>
-      </c>
-      <c r="F147" t="n">
-        <v>50.7396</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17.0767</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J166" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F148" t="n">
-        <v>13.497</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J167" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D149" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F149" t="n">
-        <v>39.9327</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J168" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3.1958</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J169" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C151" t="n">
-        <v>15310</v>
-      </c>
-      <c r="D151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E151" t="n">
-        <v>15310</v>
-      </c>
-      <c r="F151" t="n">
-        <v>12.2219</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4264.594914815884</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F170" t="n">
+        <v>38.4619</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J170" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="D152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="F152" t="n">
-        <v>55.7827</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4320.377614815884</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>15310</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16.4072</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4212.518114815884</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J171" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C153" t="n">
-        <v>15270</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E153" t="n">
-        <v>15270</v>
-      </c>
-      <c r="F153" t="n">
-        <v>30.801</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4351.178614815884</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.0867</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4210.431414815884</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J172" t="n">
+        <v>15150</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F154" t="n">
-        <v>12.5332</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>15270</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11.6572</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C156" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D156" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E156" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F156" t="n">
-        <v>209.9491</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4573.660914815884</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C157" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D157" t="n">
-        <v>15210</v>
-      </c>
-      <c r="E157" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F157" t="n">
-        <v>102.5351</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4573.660914815884</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>15200</v>
-      </c>
-      <c r="C158" t="n">
-        <v>15150</v>
-      </c>
-      <c r="D158" t="n">
-        <v>15200</v>
-      </c>
-      <c r="E158" t="n">
-        <v>15150</v>
-      </c>
-      <c r="F158" t="n">
-        <v>19.9032</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4593.564114815884</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="D159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="E159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="F159" t="n">
-        <v>326.7</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-4266.864114815884</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="C160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="D160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="E160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="F160" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-4280.594114815884</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>15210</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>15160</v>
-      </c>
-      <c r="C161" t="n">
-        <v>15270</v>
-      </c>
-      <c r="D161" t="n">
-        <v>15270</v>
-      </c>
-      <c r="E161" t="n">
-        <v>15150</v>
-      </c>
-      <c r="F161" t="n">
-        <v>68.9727</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-4211.621414815883</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>15160</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10.8988</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>15270</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1.3712</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F164" t="n">
-        <v>60</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>15270</v>
-      </c>
-      <c r="C165" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D165" t="n">
-        <v>15270</v>
-      </c>
-      <c r="E165" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F165" t="n">
-        <v>10.0021</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>15250</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F166" t="n">
-        <v>17.0767</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3.1958</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F170" t="n">
-        <v>38.4619</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F171" t="n">
-        <v>16.4072</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="D172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2.0867</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-4210.431414815884</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1348.739616047829</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1351.739616047829</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1325.841416047829</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1329.850316047829</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1410.670916047829</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1696.977216047829</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2000.861416047829</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2100.217116047829</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2100.217116047829</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2100.217116047829</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1917.296016047829</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1866.063616047829</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1866.063616047829</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2014.618416047829</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1972.618416047829</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1945.345516047829</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1981.999393790577</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1983.776893790577</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2955.431193790577</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3354.425493790577</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3354.425493790577</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3926.410814815884</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3926.344814815885</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3951.752814815884</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3951.719814815885</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4576,10 +4576,14 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>15430</v>
+      </c>
+      <c r="J127" t="n">
+        <v>15430</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4609,11 +4613,19 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>15430</v>
+      </c>
+      <c r="J128" t="n">
+        <v>15430</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15430</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5056,17 @@
         <v>-4243.008714815885</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>15370</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5099,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5136,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5173,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5206,17 @@
         <v>-4303.112614815885</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>15300</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5245,17 @@
         <v>-4303.112614815885</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>15300</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5284,17 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>15300</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5323,17 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>15320</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5362,17 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>15320</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5401,17 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>15320</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5440,17 @@
         <v>-4264.594914815884</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>15320</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5479,17 @@
         <v>-4320.377614815884</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>15310</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5518,17 @@
         <v>-4351.178614815884</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15280</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5557,17 @@
         <v>-4363.711814815884</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>15270</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5596,17 @@
         <v>-4363.711814815884</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>15260</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5635,17 @@
         <v>-4573.660914815884</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>15260</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5674,17 @@
         <v>-4573.660914815884</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>15200</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5713,17 @@
         <v>-4593.564114815884</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>15200</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,15 +5752,17 @@
         <v>-4266.864114815884</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>15150</v>
       </c>
-      <c r="J159" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,15 +5791,15 @@
         <v>-4280.594114815884</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>15150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>15210</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5708,15 +5830,15 @@
         <v>-4211.621414815883</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>15150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>15160</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5747,12 +5869,12 @@
         <v>-4222.520214815883</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>15150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>15270</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5786,12 +5908,12 @@
         <v>-4222.520214815883</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>15150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5825,14 +5947,12 @@
         <v>-4222.520214815883</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>15250</v>
       </c>
-      <c r="J164" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5866,14 +5986,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>15250</v>
       </c>
-      <c r="J165" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5907,14 +6025,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>15260</v>
       </c>
-      <c r="J166" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,14 +6064,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>15260</v>
       </c>
-      <c r="J167" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,14 +6103,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>15260</v>
       </c>
-      <c r="J168" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6030,14 +6142,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>15260</v>
       </c>
-      <c r="J169" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,14 +6181,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>15260</v>
       </c>
-      <c r="J170" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,14 +6220,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>15260</v>
       </c>
-      <c r="J171" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,14 +6259,12 @@
         <v>-4210.431414815884</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>15260</v>
       </c>
-      <c r="J172" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6172,6 +6276,6 @@
       <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1378.497216047829</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1325.841416047829</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1410.670916047829</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1696.977216047829</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2100.217116047829</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2100.217116047829</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2100.217116047829</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1917.296016047829</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1866.063616047829</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1866.063616047829</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2004.313416047829</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1992.956016047829</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2014.618416047829</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1981.999393790577</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1983.776893790577</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2955.431193790577</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4057.542814815884</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4061.419814815884</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3926.410814815884</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3926.344814815885</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3951.752814815884</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3951.719814815885</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3955.466714815885</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3985.845314815885</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3985.691514815885</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3987.634914815885</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,14 +4576,10 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>15430</v>
-      </c>
-      <c r="J127" t="n">
-        <v>15430</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4613,19 +4609,11 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>15430</v>
-      </c>
-      <c r="J128" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4654,17 +4642,11 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15430</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4675,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4726,7 +4708,7 @@
         <v>-4120.209614815884</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +4741,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +4774,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4825,7 +4807,7 @@
         <v>-4172.245914815884</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4858,7 +4840,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4891,7 +4873,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4924,7 +4906,7 @@
         <v>-4180.834814815884</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5056,596 +5038,526 @@
         <v>-4243.008714815885</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>15370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15360</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15350</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15360</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15350</v>
+      </c>
+      <c r="F142" t="n">
+        <v>25.5742</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4243.008714815885</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15340</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15.1039</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4258.112614815885</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F144" t="n">
+        <v>45</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8.387</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4303.112614815885</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15310</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15310</v>
+      </c>
+      <c r="F147" t="n">
+        <v>50.7396</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13.497</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F149" t="n">
+        <v>39.9327</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4252.373014815885</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12.2219</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4264.594914815884</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F152" t="n">
+        <v>55.7827</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4320.377614815884</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4351.178614815884</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.5332</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>15270</v>
+      </c>
+      <c r="J154" t="n">
+        <v>15270</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11.6572</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4363.711814815884</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15270</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F156" t="n">
+        <v>209.9491</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4573.660914815884</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15270</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15360</v>
-      </c>
-      <c r="C142" t="n">
-        <v>15350</v>
-      </c>
-      <c r="D142" t="n">
-        <v>15360</v>
-      </c>
-      <c r="E142" t="n">
-        <v>15350</v>
-      </c>
-      <c r="F142" t="n">
-        <v>25.5742</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-4243.008714815885</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="C143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="E143" t="n">
-        <v>15340</v>
-      </c>
-      <c r="F143" t="n">
-        <v>15.1039</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-4258.112614815885</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C144" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D144" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E144" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F144" t="n">
-        <v>45</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="C145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="E145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F145" t="n">
-        <v>8.387</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>15300</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="C146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="D146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="E146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="F146" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>15300</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>15310</v>
-      </c>
-      <c r="C147" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D147" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E147" t="n">
-        <v>15310</v>
-      </c>
-      <c r="F147" t="n">
-        <v>50.7396</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>15300</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F148" t="n">
-        <v>13.497</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D149" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F149" t="n">
-        <v>39.9327</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C151" t="n">
-        <v>15310</v>
-      </c>
-      <c r="D151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E151" t="n">
-        <v>15310</v>
-      </c>
-      <c r="F151" t="n">
-        <v>12.2219</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4264.594914815884</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="D152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="F152" t="n">
-        <v>55.7827</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4320.377614815884</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>15310</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C153" t="n">
-        <v>15270</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E153" t="n">
-        <v>15270</v>
-      </c>
-      <c r="F153" t="n">
-        <v>30.801</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4351.178614815884</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F154" t="n">
-        <v>12.5332</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>15270</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11.6572</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C156" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D156" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E156" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F156" t="n">
-        <v>209.9491</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4573.660914815884</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5679,7 +5591,9 @@
       <c r="I157" t="n">
         <v>15200</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>15270</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5718,7 +5632,9 @@
       <c r="I158" t="n">
         <v>15200</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>15270</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5757,7 +5673,9 @@
       <c r="I159" t="n">
         <v>15150</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>15270</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5796,7 +5714,9 @@
       <c r="I160" t="n">
         <v>15210</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>15270</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5835,7 +5755,9 @@
       <c r="I161" t="n">
         <v>15160</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>15270</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,7 +5796,9 @@
       <c r="I162" t="n">
         <v>15270</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>15270</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5913,7 +5837,9 @@
       <c r="I163" t="n">
         <v>15250</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15270</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,7 +5878,9 @@
       <c r="I164" t="n">
         <v>15250</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15270</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5991,7 +5919,9 @@
       <c r="I165" t="n">
         <v>15250</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>15270</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6025,12 +5955,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15270</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,12 +5994,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>15270</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6103,12 +6033,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>15270</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,12 +6072,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15270</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6181,12 +6111,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15270</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,12 +6150,12 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>15270</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,12 +6189,12 @@
         <v>-4210.431414815884</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>15270</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,6 +6206,6 @@
       <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -880,7 +880,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1410.670916047829</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1696.977216047829</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2000.861416047829</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2004.313416047829</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1992.956016047829</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1972.618416047829</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1945.345516047829</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4057.542814815884</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4061.419814815884</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3926.410814815884</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3926.344814815885</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3951.752814815884</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3951.719814815885</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3955.466714815885</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3985.845314815885</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3985.691514815885</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3987.634914815885</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4120.209614815884</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4172.245914815884</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4180.834814815884</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5236,10 +5236,14 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>15300</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15300</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5272,8 +5276,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>15300</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5315,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>15300</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,10 +5351,14 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15320</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5368,11 +5388,19 @@
         <v>-4264.594914815884</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="J151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5429,19 @@
         <v>-4320.377614815884</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>15310</v>
+      </c>
+      <c r="J152" t="n">
+        <v>15320</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5470,19 @@
         <v>-4351.178614815884</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15320</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5473,9 +5517,13 @@
         <v>15270</v>
       </c>
       <c r="J154" t="n">
-        <v>15270</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>15320</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5510,11 +5558,11 @@
         <v>15260</v>
       </c>
       <c r="J155" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5551,11 +5599,11 @@
         <v>15260</v>
       </c>
       <c r="J156" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5592,7 +5640,7 @@
         <v>15200</v>
       </c>
       <c r="J157" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5633,7 +5681,7 @@
         <v>15200</v>
       </c>
       <c r="J158" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5674,7 +5722,7 @@
         <v>15150</v>
       </c>
       <c r="J159" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5715,7 +5763,7 @@
         <v>15210</v>
       </c>
       <c r="J160" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5756,7 +5804,7 @@
         <v>15160</v>
       </c>
       <c r="J161" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5797,7 +5845,7 @@
         <v>15270</v>
       </c>
       <c r="J162" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5838,7 +5886,7 @@
         <v>15250</v>
       </c>
       <c r="J163" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5879,7 +5927,7 @@
         <v>15250</v>
       </c>
       <c r="J164" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5920,7 +5968,7 @@
         <v>15250</v>
       </c>
       <c r="J165" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5955,11 +6003,13 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15260</v>
+      </c>
       <c r="J166" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5994,11 +6044,13 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>15260</v>
+      </c>
       <c r="J167" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6033,11 +6085,13 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15260</v>
+      </c>
       <c r="J168" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6072,11 +6126,13 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>15260</v>
+      </c>
       <c r="J169" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6111,11 +6167,13 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15260</v>
+      </c>
       <c r="J170" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6150,11 +6208,13 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15260</v>
+      </c>
       <c r="J171" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6189,11 +6249,13 @@
         <v>-4210.431414815884</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15260</v>
+      </c>
       <c r="J172" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>

--- a/BackTest/2020-01-24 BackTest REP.xlsx
+++ b/BackTest/2020-01-24 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7.3636</v>
       </c>
       <c r="G2" t="n">
-        <v>-1378.497216047829</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3.674</v>
       </c>
       <c r="G3" t="n">
-        <v>-1378.497216047829</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6.8786</v>
       </c>
       <c r="G4" t="n">
-        <v>-1378.497216047829</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>124.5479</v>
       </c>
       <c r="G5" t="n">
-        <v>-1378.497216047829</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>17.7239</v>
       </c>
       <c r="G6" t="n">
-        <v>-1378.497216047829</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>29.7576</v>
       </c>
       <c r="G7" t="n">
-        <v>-1348.739616047829</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>-1351.739616047829</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>25.8982</v>
       </c>
       <c r="G9" t="n">
-        <v>-1325.841416047829</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4.0089</v>
       </c>
       <c r="G10" t="n">
-        <v>-1329.850316047829</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>18.4674</v>
       </c>
       <c r="G11" t="n">
-        <v>-1311.382916047829</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>49.0605</v>
       </c>
       <c r="G12" t="n">
-        <v>-1311.382916047829</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>14.1147</v>
       </c>
       <c r="G13" t="n">
-        <v>-1311.382916047829</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>35.3631</v>
       </c>
       <c r="G14" t="n">
-        <v>-1311.382916047829</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>199.4971</v>
       </c>
       <c r="G15" t="n">
-        <v>-1311.382916047829</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>101.0983</v>
       </c>
       <c r="G16" t="n">
-        <v>-1412.481216047829</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3.8075</v>
       </c>
       <c r="G17" t="n">
-        <v>-1412.481216047829</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1.8103</v>
       </c>
       <c r="G18" t="n">
-        <v>-1410.670916047829</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>268.3187</v>
       </c>
       <c r="G19" t="n">
-        <v>-1678.989616047829</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>75.241</v>
       </c>
       <c r="G20" t="n">
-        <v>-1678.989616047829</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>17.9876</v>
       </c>
       <c r="G21" t="n">
-        <v>-1696.977216047829</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>153.7904</v>
       </c>
       <c r="G22" t="n">
-        <v>-1850.767616047829</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>33.381</v>
       </c>
       <c r="G23" t="n">
-        <v>-1850.767616047829</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>18.87</v>
       </c>
       <c r="G24" t="n">
-        <v>-1850.767616047829</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>150.0938</v>
       </c>
       <c r="G25" t="n">
-        <v>-2000.861416047829</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>96.79519999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-2097.656616047829</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>78.0294</v>
       </c>
       <c r="G27" t="n">
-        <v>-2097.656616047829</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2.4395</v>
       </c>
       <c r="G28" t="n">
-        <v>-2095.217116047829</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>44.4359</v>
       </c>
       <c r="G29" t="n">
-        <v>-2095.217116047829</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>76.143</v>
       </c>
       <c r="G30" t="n">
-        <v>-2095.217116047829</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>-2100.217116047829</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>63.1918</v>
       </c>
       <c r="G32" t="n">
-        <v>-2100.217116047829</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>223.7228</v>
       </c>
       <c r="G33" t="n">
-        <v>-2100.217116047829</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>182.9211</v>
       </c>
       <c r="G34" t="n">
-        <v>-1917.296016047829</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>51.2324</v>
       </c>
       <c r="G35" t="n">
-        <v>-1866.063616047829</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>9.569800000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-1866.063616047829</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>138.2498</v>
       </c>
       <c r="G37" t="n">
-        <v>-2004.313416047829</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>11.3574</v>
       </c>
       <c r="G38" t="n">
-        <v>-1992.956016047829</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>21.6624</v>
       </c>
       <c r="G39" t="n">
-        <v>-2014.618416047829</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>10.8267</v>
       </c>
       <c r="G40" t="n">
-        <v>-2014.618416047829</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>42</v>
       </c>
       <c r="G41" t="n">
-        <v>-1972.618416047829</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>27.2729</v>
       </c>
       <c r="G42" t="n">
-        <v>-1945.345516047829</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>79.00369999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-2024.349216047829</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>17.01</v>
       </c>
       <c r="G44" t="n">
-        <v>-2024.349216047829</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>29.7577</v>
       </c>
       <c r="G45" t="n">
-        <v>-1994.591516047828</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>54.541</v>
       </c>
       <c r="G46" t="n">
-        <v>-1994.591516047828</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>12.59212225725095</v>
       </c>
       <c r="G47" t="n">
-        <v>-1981.999393790577</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1.7775</v>
       </c>
       <c r="G48" t="n">
-        <v>-1983.776893790577</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>971.6543</v>
       </c>
       <c r="G49" t="n">
-        <v>-2955.431193790577</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1.0057</v>
       </c>
       <c r="G50" t="n">
-        <v>-2954.425493790577</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-2954.425493790577</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-2954.425493790577</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>400</v>
       </c>
       <c r="G53" t="n">
-        <v>-3354.425493790577</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>201.0717</v>
       </c>
       <c r="G54" t="n">
-        <v>-3354.425493790577</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>62.7251</v>
       </c>
       <c r="G55" t="n">
-        <v>-3417.150593790577</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>-3517.150593790577</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>-3617.150593790577</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>31</v>
       </c>
       <c r="G58" t="n">
-        <v>-3648.150593790577</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>41</v>
       </c>
       <c r="G59" t="n">
-        <v>-3607.150593790577</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>0.6202</v>
       </c>
       <c r="G60" t="n">
-        <v>-3607.150593790577</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>141.0986</v>
       </c>
       <c r="G61" t="n">
-        <v>-3748.249193790577</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>12.487</v>
       </c>
       <c r="G62" t="n">
-        <v>-3735.762193790577</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>148.975</v>
       </c>
       <c r="G63" t="n">
-        <v>-3735.762193790577</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>61.602</v>
       </c>
       <c r="G64" t="n">
-        <v>-3797.364193790577</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>50.2863</v>
       </c>
       <c r="G65" t="n">
-        <v>-3747.077893790577</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>29.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>-3777.077793790576</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>61.81</v>
       </c>
       <c r="G67" t="n">
-        <v>-3715.267793790576</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>55.941</v>
       </c>
       <c r="G68" t="n">
-        <v>-3715.267793790576</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>2.6504</v>
       </c>
       <c r="G69" t="n">
-        <v>-3715.267793790576</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>113.6866</v>
       </c>
       <c r="G70" t="n">
-        <v>-3828.954393790576</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>9.8687</v>
       </c>
       <c r="G71" t="n">
-        <v>-3828.954393790576</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>264.2772</v>
       </c>
       <c r="G72" t="n">
-        <v>-3828.954393790576</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>11.4135</v>
       </c>
       <c r="G73" t="n">
-        <v>-3828.954393790576</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>149.93</v>
       </c>
       <c r="G74" t="n">
-        <v>-3978.884393790576</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>87.33759999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>-3978.884393790576</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2.8314</v>
       </c>
       <c r="G76" t="n">
-        <v>-3978.884393790576</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>7.8288</v>
       </c>
       <c r="G77" t="n">
-        <v>-3978.884393790576</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>5.827</v>
       </c>
       <c r="G78" t="n">
-        <v>-3978.884393790576</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>11.11</v>
       </c>
       <c r="G79" t="n">
-        <v>-3978.884393790576</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>70.6692</v>
       </c>
       <c r="G80" t="n">
-        <v>-4049.553593790576</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>54.0791</v>
       </c>
       <c r="G81" t="n">
-        <v>-4049.553593790576</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>194.4763789746918</v>
       </c>
       <c r="G82" t="n">
-        <v>-3855.077214815884</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>166.3014</v>
       </c>
       <c r="G83" t="n">
-        <v>-4021.378614815884</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>7.5231</v>
       </c>
       <c r="G84" t="n">
-        <v>-4013.855514815884</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>15.76052102530824</v>
       </c>
       <c r="G85" t="n">
-        <v>-4013.855514815884</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>49</v>
       </c>
       <c r="G86" t="n">
-        <v>-3964.855514815884</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>0.034</v>
       </c>
       <c r="G87" t="n">
-        <v>-3964.821514815884</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>12.5876</v>
       </c>
       <c r="G88" t="n">
-        <v>-3977.409114815884</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>2.0569</v>
       </c>
       <c r="G89" t="n">
-        <v>-3975.352214815884</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1.0593</v>
       </c>
       <c r="G90" t="n">
-        <v>-3975.352214815884</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1.146</v>
       </c>
       <c r="G91" t="n">
-        <v>-3975.352214815884</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>0.4486</v>
       </c>
       <c r="G92" t="n">
-        <v>-3975.352214815884</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1.9613</v>
       </c>
       <c r="G93" t="n">
-        <v>-3977.313514815884</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>47.9192</v>
       </c>
       <c r="G94" t="n">
-        <v>-3929.394314815884</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>63.4475</v>
       </c>
       <c r="G95" t="n">
-        <v>-3992.841814815884</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>40.8072</v>
       </c>
       <c r="G96" t="n">
-        <v>-3992.841814815884</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>33.8265</v>
       </c>
       <c r="G97" t="n">
-        <v>-3992.841814815884</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>0.3524</v>
       </c>
       <c r="G98" t="n">
-        <v>-3992.489414815884</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>5.9109</v>
       </c>
       <c r="G99" t="n">
-        <v>-3998.400314815884</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>3.41</v>
       </c>
       <c r="G100" t="n">
-        <v>-3998.400314815884</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>7.1185</v>
       </c>
       <c r="G101" t="n">
-        <v>-3998.400314815884</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>76.1361</v>
       </c>
       <c r="G102" t="n">
-        <v>-4074.536414815884</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>12.2498</v>
       </c>
       <c r="G103" t="n">
-        <v>-4062.286614815884</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>3.8002</v>
       </c>
       <c r="G104" t="n">
-        <v>-4062.286614815884</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>4.7108</v>
       </c>
       <c r="G105" t="n">
-        <v>-4057.575814815884</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>6.8305</v>
       </c>
       <c r="G106" t="n">
-        <v>-4057.575814815884</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>0.033</v>
       </c>
       <c r="G107" t="n">
-        <v>-4057.542814815884</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>3.877</v>
       </c>
       <c r="G108" t="n">
-        <v>-4061.419814815884</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>137.009</v>
       </c>
       <c r="G109" t="n">
-        <v>-3924.410814815884</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>256.7351</v>
       </c>
       <c r="G110" t="n">
-        <v>-3924.410814815884</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>-3926.410814815884</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>0.066</v>
       </c>
       <c r="G112" t="n">
-        <v>-3926.344814815885</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>25.408</v>
       </c>
       <c r="G113" t="n">
-        <v>-3951.752814815884</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>0.033</v>
       </c>
       <c r="G114" t="n">
-        <v>-3951.719814815885</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>3.8129</v>
       </c>
       <c r="G115" t="n">
-        <v>-3955.532714815884</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>7.3262</v>
       </c>
       <c r="G116" t="n">
-        <v>-3955.532714815884</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>0.066</v>
       </c>
       <c r="G117" t="n">
-        <v>-3955.466714815885</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>-3957.466714815885</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>45.2374</v>
       </c>
       <c r="G119" t="n">
-        <v>-3957.466714815885</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>26.806</v>
       </c>
       <c r="G120" t="n">
-        <v>-3984.272714815885</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>58.4074</v>
       </c>
       <c r="G121" t="n">
-        <v>-3984.272714815885</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1.5726</v>
       </c>
       <c r="G122" t="n">
-        <v>-3985.845314815885</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>0.1538</v>
       </c>
       <c r="G123" t="n">
-        <v>-3985.691514815885</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1.9434</v>
       </c>
       <c r="G124" t="n">
-        <v>-3987.634914815885</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>46.7589</v>
       </c>
       <c r="G125" t="n">
-        <v>-4034.393814815885</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2.295</v>
       </c>
       <c r="G126" t="n">
-        <v>-4034.393814815885</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>75.90049999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-4034.393814815885</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>36.2742</v>
       </c>
       <c r="G128" t="n">
-        <v>-4034.393814815885</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>44.9252</v>
       </c>
       <c r="G129" t="n">
-        <v>-4034.393814815885</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>48.158</v>
       </c>
       <c r="G130" t="n">
-        <v>-4034.393814815885</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>85.8158</v>
       </c>
       <c r="G131" t="n">
-        <v>-4120.209614815884</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>7.367</v>
       </c>
       <c r="G132" t="n">
-        <v>-4112.842614815884</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>2.654</v>
       </c>
       <c r="G133" t="n">
-        <v>-4112.842614815884</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>59.4033</v>
       </c>
       <c r="G134" t="n">
-        <v>-4172.245914815884</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>2.459</v>
       </c>
       <c r="G135" t="n">
-        <v>-4174.704914815884</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>15.236</v>
       </c>
       <c r="G136" t="n">
-        <v>-4174.704914815884</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>6.1299</v>
       </c>
       <c r="G137" t="n">
-        <v>-4180.834814815884</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>14.544</v>
       </c>
       <c r="G138" t="n">
-        <v>-4180.834814815884</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>59.7861</v>
       </c>
       <c r="G139" t="n">
-        <v>-4240.620914815884</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>5.8365</v>
       </c>
       <c r="G140" t="n">
-        <v>-4240.620914815884</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>2.3878</v>
       </c>
       <c r="G141" t="n">
-        <v>-4243.008714815885</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>25.5742</v>
       </c>
       <c r="G142" t="n">
-        <v>-4243.008714815885</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>15.1039</v>
       </c>
       <c r="G143" t="n">
-        <v>-4258.112614815885</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>45</v>
       </c>
       <c r="G144" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>8.387</v>
       </c>
       <c r="G145" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>12.8</v>
       </c>
       <c r="G146" t="n">
-        <v>-4303.112614815885</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,22 +4793,15 @@
         <v>50.7396</v>
       </c>
       <c r="G147" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>15300</v>
-      </c>
-      <c r="J147" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5270,1002 +4823,843 @@
         <v>13.497</v>
       </c>
       <c r="G148" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K148" t="inlineStr">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F149" t="n">
+        <v>39.9327</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15320</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15320</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15310</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12.2219</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F152" t="n">
+        <v>55.7827</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15280</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15270</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.5332</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11.6572</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F156" t="n">
+        <v>209.9491</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15200</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15200</v>
+      </c>
+      <c r="F157" t="n">
+        <v>102.5351</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15200</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15150</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15200</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19.9032</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15210</v>
+      </c>
+      <c r="F159" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>15150</v>
+      </c>
+      <c r="I159" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15160</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15210</v>
+      </c>
+      <c r="I160" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D149" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E149" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F149" t="n">
-        <v>39.9327</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="D150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.4599</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4252.373014815885</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J150" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="C151" t="n">
-        <v>15310</v>
-      </c>
-      <c r="D151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="E151" t="n">
-        <v>15310</v>
-      </c>
-      <c r="F151" t="n">
-        <v>12.2219</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4264.594914815884</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J151" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K151" t="inlineStr">
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15160</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15270</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15270</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F161" t="n">
+        <v>68.9727</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>15160</v>
+      </c>
+      <c r="I161" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="D152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E152" t="n">
-        <v>15280</v>
-      </c>
-      <c r="F152" t="n">
-        <v>55.7827</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4320.377614815884</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>15310</v>
-      </c>
-      <c r="J152" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K152" t="inlineStr">
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10.8988</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>15270</v>
+      </c>
+      <c r="I162" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="C153" t="n">
-        <v>15270</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="E153" t="n">
-        <v>15270</v>
-      </c>
-      <c r="F153" t="n">
-        <v>30.801</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4351.178614815884</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>15280</v>
-      </c>
-      <c r="J153" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.3712</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>15250</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F154" t="n">
-        <v>12.5332</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>15270</v>
-      </c>
-      <c r="J154" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="F164" t="n">
+        <v>60</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>15250</v>
+      </c>
+      <c r="I164" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C165" t="n">
         <v>15260</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D165" t="n">
+        <v>15270</v>
+      </c>
+      <c r="E165" t="n">
         <v>15260</v>
       </c>
-      <c r="D155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11.6572</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4363.711814815884</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J155" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="F165" t="n">
+        <v>10.0021</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>15250</v>
+      </c>
+      <c r="I165" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>15260</v>
       </c>
-      <c r="C156" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D156" t="n">
+      <c r="C166" t="n">
         <v>15260</v>
       </c>
-      <c r="E156" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F156" t="n">
-        <v>209.9491</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4573.660914815884</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
+      <c r="D166" t="n">
         <v>15260</v>
       </c>
-      <c r="J156" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="E166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17.0767</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>15260</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C157" t="n">
-        <v>15200</v>
-      </c>
-      <c r="D157" t="n">
-        <v>15210</v>
-      </c>
-      <c r="E157" t="n">
-        <v>15200</v>
-      </c>
-      <c r="F157" t="n">
-        <v>102.5351</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4573.660914815884</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>15200</v>
-      </c>
-      <c r="J157" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.816</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>15260</v>
+      </c>
+      <c r="I167" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>15200</v>
-      </c>
-      <c r="C158" t="n">
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>15260</v>
+      </c>
+      <c r="I168" t="n">
         <v>15150</v>
       </c>
-      <c r="D158" t="n">
-        <v>15200</v>
-      </c>
-      <c r="E158" t="n">
-        <v>15150</v>
-      </c>
-      <c r="F158" t="n">
-        <v>19.9032</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4593.564114815884</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>15200</v>
-      </c>
-      <c r="J158" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="D159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="E159" t="n">
-        <v>15210</v>
-      </c>
-      <c r="F159" t="n">
-        <v>326.7</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-4266.864114815884</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3.1958</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>15260</v>
+      </c>
+      <c r="I169" t="n">
         <v>15150</v>
       </c>
-      <c r="J159" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K159" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="C160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="D160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="E160" t="n">
-        <v>15160</v>
-      </c>
-      <c r="F160" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-4280.594114815884</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>15210</v>
-      </c>
-      <c r="J160" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F170" t="n">
+        <v>38.4619</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>15260</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>15160</v>
-      </c>
-      <c r="C161" t="n">
-        <v>15270</v>
-      </c>
-      <c r="D161" t="n">
-        <v>15270</v>
-      </c>
-      <c r="E161" t="n">
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16.4072</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
+        <v>15260</v>
+      </c>
+      <c r="I171" t="n">
         <v>15150</v>
       </c>
-      <c r="F161" t="n">
-        <v>68.9727</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-4211.621414815883</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>15160</v>
-      </c>
-      <c r="J161" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E162" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10.8988</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>15270</v>
-      </c>
-      <c r="J162" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15330</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.0867</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>15260</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15150</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1.3712</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>15250</v>
-      </c>
-      <c r="J163" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="D164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="E164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="F164" t="n">
-        <v>60</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-4222.520214815883</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>15250</v>
-      </c>
-      <c r="J164" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>15270</v>
-      </c>
-      <c r="C165" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D165" t="n">
-        <v>15270</v>
-      </c>
-      <c r="E165" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F165" t="n">
-        <v>10.0021</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>15250</v>
-      </c>
-      <c r="J165" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F166" t="n">
-        <v>17.0767</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J166" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3.816</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J167" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3.815</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J168" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3.1958</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J169" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F170" t="n">
-        <v>38.4619</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J170" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="D171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="E171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="F171" t="n">
-        <v>16.4072</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-4212.518114815884</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J171" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="C172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="D172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="E172" t="n">
-        <v>15330</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2.0867</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-4210.431414815884</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>15260</v>
-      </c>
-      <c r="J172" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
